--- a/Aufgabe_5/prognose_ergebnisse.xlsx
+++ b/Aufgabe_5/prognose_ergebnisse.xlsx
@@ -452,2202 +452,2202 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>8.800000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="C2" t="n">
-        <v>-15.62</v>
+        <v>-19.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.9</v>
+        <v>23.6</v>
       </c>
       <c r="B3" t="n">
-        <v>5.4</v>
+        <v>22.9</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.52</v>
+        <v>-16.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>35.7</v>
+        <v>20.9</v>
       </c>
       <c r="B4" t="n">
-        <v>9.9</v>
+        <v>23.5</v>
       </c>
       <c r="C4" t="n">
-        <v>26.74</v>
+        <v>-22.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12.1</v>
+        <v>17.3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.3</v>
+        <v>8.1</v>
       </c>
       <c r="C5" t="n">
-        <v>-34.38</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19.4</v>
+        <v>25.5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="C6" t="n">
-        <v>6.85</v>
+        <v>21.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>36.5</v>
+        <v>7.7</v>
       </c>
       <c r="B7" t="n">
-        <v>9.6</v>
+        <v>12.9</v>
       </c>
       <c r="C7" t="n">
-        <v>28.61</v>
+        <v>-25.45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15.6</v>
+        <v>21.3</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3</v>
+        <v>17.3</v>
       </c>
       <c r="C8" t="n">
-        <v>-21.54</v>
+        <v>-10.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23.9</v>
+        <v>22.6</v>
       </c>
       <c r="B9" t="n">
-        <v>27.2</v>
+        <v>23.4</v>
       </c>
       <c r="C9" t="n">
-        <v>-23.23</v>
+        <v>-19.44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16.4</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>-12.85</v>
+        <v>-30.72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.8</v>
+        <v>27.6</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>5.3</v>
       </c>
       <c r="C11" t="n">
-        <v>-25.15</v>
+        <v>21.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>36.3</v>
+        <v>10.9</v>
       </c>
       <c r="B12" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.8</v>
+        <v>-44.19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="B13" t="n">
-        <v>15.5</v>
+        <v>23.1</v>
       </c>
       <c r="C13" t="n">
-        <v>-28.34</v>
+        <v>-46.45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>22.7</v>
+        <v>13.6</v>
       </c>
       <c r="B14" t="n">
-        <v>4.3</v>
+        <v>21</v>
       </c>
       <c r="C14" t="n">
-        <v>14.81</v>
+        <v>-30.09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>25.5</v>
+        <v>39.5</v>
       </c>
       <c r="B15" t="n">
-        <v>1.1</v>
+        <v>24.4</v>
       </c>
       <c r="C15" t="n">
-        <v>25.08</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17.5</v>
+        <v>11.4</v>
       </c>
       <c r="B16" t="n">
-        <v>6.8</v>
+        <v>20.6</v>
       </c>
       <c r="C16" t="n">
-        <v>1.75</v>
+        <v>-33.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>23.3</v>
+        <v>30.3</v>
       </c>
       <c r="B17" t="n">
-        <v>7.1</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
-        <v>10.92</v>
+        <v>-5.95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="B18" t="n">
-        <v>12.4</v>
+        <v>10.8</v>
       </c>
       <c r="C18" t="n">
-        <v>-17.24</v>
+        <v>-23.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>31.6</v>
+        <v>37.8</v>
       </c>
       <c r="B19" t="n">
-        <v>27.9</v>
+        <v>5.4</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.58</v>
+        <v>37.86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>23.4</v>
+        <v>35.7</v>
       </c>
       <c r="B20" t="n">
-        <v>14.8</v>
+        <v>7.7</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.38</v>
+        <v>30.28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>38.8</v>
+        <v>39.6</v>
       </c>
       <c r="B21" t="n">
-        <v>26.9</v>
+        <v>13.9</v>
       </c>
       <c r="C21" t="n">
-        <v>2.2</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11.4</v>
+        <v>8.1</v>
       </c>
       <c r="B22" t="n">
-        <v>27</v>
+        <v>23.7</v>
       </c>
       <c r="C22" t="n">
-        <v>-43.77</v>
+        <v>-44.03</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.7</v>
+        <v>35.9</v>
       </c>
       <c r="B23" t="n">
-        <v>21.4</v>
+        <v>7.4</v>
       </c>
       <c r="C23" t="n">
-        <v>-41.83</v>
+        <v>31.14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>37.8</v>
+        <v>29.9</v>
       </c>
       <c r="B24" t="n">
-        <v>27.4</v>
+        <v>25.4</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.35</v>
+        <v>-10.89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>26.3</v>
+        <v>32.7</v>
       </c>
       <c r="B25" t="n">
-        <v>3.8</v>
+        <v>16</v>
       </c>
       <c r="C25" t="n">
-        <v>21.7</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>15.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>15.8</v>
+        <v>13.9</v>
       </c>
       <c r="C26" t="n">
-        <v>-18</v>
+        <v>-26.24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>40</v>
+        <v>13.8</v>
       </c>
       <c r="B27" t="n">
-        <v>7.3</v>
+        <v>11.5</v>
       </c>
       <c r="C27" t="n">
-        <v>38.48</v>
+        <v>-12.83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20.2</v>
+        <v>12</v>
       </c>
       <c r="B28" t="n">
-        <v>5.8</v>
+        <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>8.01</v>
+        <v>-41.66</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>26.8</v>
+        <v>10</v>
       </c>
       <c r="B29" t="n">
         <v>24.5</v>
       </c>
       <c r="C29" t="n">
-        <v>-13.66</v>
+        <v>-42.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9.1</v>
+        <v>37.7</v>
       </c>
       <c r="B30" t="n">
-        <v>2.7</v>
+        <v>19.6</v>
       </c>
       <c r="C30" t="n">
-        <v>-5.12</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>39.6</v>
+        <v>22.8</v>
       </c>
       <c r="B31" t="n">
-        <v>23.1</v>
+        <v>3.5</v>
       </c>
       <c r="C31" t="n">
-        <v>10.18</v>
+        <v>16.36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8.199999999999999</v>
+        <v>31.6</v>
       </c>
       <c r="B32" t="n">
-        <v>9.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="C32" t="n">
-        <v>-18.17</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>36.7</v>
+        <v>16.3</v>
       </c>
       <c r="B33" t="n">
-        <v>29.2</v>
+        <v>11.8</v>
       </c>
       <c r="C33" t="n">
-        <v>-5.33</v>
+        <v>-9.220000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23.8</v>
+        <v>39.6</v>
       </c>
       <c r="B34" t="n">
-        <v>5.2</v>
+        <v>6.7</v>
       </c>
       <c r="C34" t="n">
-        <v>15.07</v>
+        <v>38.53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>37.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>8.800000000000001</v>
+        <v>14.2</v>
       </c>
       <c r="C35" t="n">
-        <v>31.34</v>
+        <v>-26.11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>27.6</v>
+        <v>15</v>
       </c>
       <c r="B36" t="n">
-        <v>9.699999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="C36" t="n">
-        <v>13.56</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" t="n">
-        <v>12.9</v>
+        <v>5.2</v>
       </c>
       <c r="C37" t="n">
-        <v>-26.47</v>
+        <v>-14.55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>38</v>
+        <v>38.6</v>
       </c>
       <c r="B38" t="n">
-        <v>25.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>2.79</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>32.5</v>
+        <v>24.9</v>
       </c>
       <c r="B39" t="n">
-        <v>25.4</v>
+        <v>4.9</v>
       </c>
       <c r="C39" t="n">
-        <v>-5.71</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>14.2</v>
+        <v>37.9</v>
       </c>
       <c r="B40" t="n">
-        <v>3.1</v>
+        <v>13.5</v>
       </c>
       <c r="C40" t="n">
-        <v>2.7</v>
+        <v>23.59</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>18.9</v>
+        <v>7.2</v>
       </c>
       <c r="B41" t="n">
-        <v>9</v>
+        <v>24.9</v>
       </c>
       <c r="C41" t="n">
-        <v>0.24</v>
+        <v>-47.66</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>24.5</v>
+        <v>31.3</v>
       </c>
       <c r="B42" t="n">
-        <v>16.2</v>
+        <v>2.4</v>
       </c>
       <c r="C42" t="n">
-        <v>-2.99</v>
+        <v>32.42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>38.6</v>
+        <v>22.6</v>
       </c>
       <c r="B43" t="n">
-        <v>13.3</v>
+        <v>24.4</v>
       </c>
       <c r="C43" t="n">
-        <v>25.65</v>
+        <v>-21.22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>34.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C44" t="n">
-        <v>-5.5</v>
+        <v>-44.35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>34.2</v>
+        <v>13.2</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="C45" t="n">
-        <v>40.32</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22.2</v>
+        <v>15</v>
       </c>
       <c r="B46" t="n">
-        <v>13.6</v>
+        <v>4.1</v>
       </c>
       <c r="C46" t="n">
-        <v>-2.29</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>32.1</v>
+        <v>18.9</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1</v>
+        <v>18.4</v>
       </c>
       <c r="C47" t="n">
-        <v>37.86</v>
+        <v>-16.67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7.3</v>
+        <v>22.7</v>
       </c>
       <c r="B48" t="n">
-        <v>18</v>
+        <v>19.4</v>
       </c>
       <c r="C48" t="n">
-        <v>-34.88</v>
+        <v>-12.14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7.7</v>
+        <v>38.6</v>
       </c>
       <c r="B49" t="n">
-        <v>28.9</v>
+        <v>27.1</v>
       </c>
       <c r="C49" t="n">
-        <v>-53.27</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>19.9</v>
+        <v>34.8</v>
       </c>
       <c r="B50" t="n">
-        <v>22.3</v>
+        <v>28.1</v>
       </c>
       <c r="C50" t="n">
-        <v>-21.34</v>
+        <v>-7.57</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>21.7</v>
+        <v>16</v>
       </c>
       <c r="B51" t="n">
-        <v>7.1</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
-        <v>8.24</v>
+        <v>-15.42</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9.300000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="B52" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>-4.44</v>
+        <v>-19.09</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8.6</v>
+        <v>35.5</v>
       </c>
       <c r="B53" t="n">
-        <v>12.9</v>
+        <v>15.4</v>
       </c>
       <c r="C53" t="n">
-        <v>-23.79</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>31.2</v>
+        <v>38.4</v>
       </c>
       <c r="B54" t="n">
-        <v>27</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>-10.68</v>
+        <v>31.19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="B55" t="n">
-        <v>4.8</v>
+        <v>18.6</v>
       </c>
       <c r="C55" t="n">
-        <v>20.12</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>34.1</v>
+        <v>39.7</v>
       </c>
       <c r="B56" t="n">
-        <v>6.5</v>
+        <v>25.7</v>
       </c>
       <c r="C56" t="n">
-        <v>30.02</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>34.7</v>
+        <v>29</v>
       </c>
       <c r="B57" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="C57" t="n">
-        <v>33.12</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>39.8</v>
+        <v>31.9</v>
       </c>
       <c r="B58" t="n">
-        <v>12.6</v>
+        <v>17.5</v>
       </c>
       <c r="C58" t="n">
-        <v>28.88</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>30.9</v>
+        <v>27.7</v>
       </c>
       <c r="B59" t="n">
-        <v>18.2</v>
+        <v>16.6</v>
       </c>
       <c r="C59" t="n">
-        <v>4.21</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="B60" t="n">
-        <v>23.9</v>
+        <v>13.5</v>
       </c>
       <c r="C60" t="n">
-        <v>-12.28</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>17.1</v>
+        <v>12.9</v>
       </c>
       <c r="B61" t="n">
-        <v>13.5</v>
+        <v>18.4</v>
       </c>
       <c r="C61" t="n">
-        <v>-10.64</v>
+        <v>-26.62</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>29.4</v>
+        <v>31</v>
       </c>
       <c r="B62" t="n">
-        <v>17.5</v>
+        <v>26.3</v>
       </c>
       <c r="C62" t="n">
-        <v>2.93</v>
+        <v>-10.66</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>33.7</v>
+        <v>28.7</v>
       </c>
       <c r="B63" t="n">
-        <v>27.9</v>
+        <v>5.8</v>
       </c>
       <c r="C63" t="n">
-        <v>-8.07</v>
+        <v>22.05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7.2</v>
+        <v>18.3</v>
       </c>
       <c r="B64" t="n">
-        <v>17.6</v>
+        <v>7.9</v>
       </c>
       <c r="C64" t="n">
-        <v>-34.35</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>39.8</v>
+        <v>6.7</v>
       </c>
       <c r="B65" t="n">
-        <v>27.7</v>
+        <v>29.8</v>
       </c>
       <c r="C65" t="n">
-        <v>2.47</v>
+        <v>-57.22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>19.2</v>
+        <v>36.4</v>
       </c>
       <c r="B66" t="n">
-        <v>26.5</v>
+        <v>7.4</v>
       </c>
       <c r="C66" t="n">
-        <v>-29.86</v>
+        <v>31.97</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>24.2</v>
+        <v>12.6</v>
       </c>
       <c r="B67" t="n">
-        <v>29</v>
+        <v>11.4</v>
       </c>
       <c r="C67" t="n">
-        <v>-25.87</v>
+        <v>-14.65</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>30.2</v>
+        <v>13.6</v>
       </c>
       <c r="B68" t="n">
-        <v>4.7</v>
+        <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>26.64</v>
+        <v>-35.44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>38.3</v>
+        <v>31.1</v>
       </c>
       <c r="B69" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="C69" t="n">
-        <v>13.43</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>13.6</v>
+        <v>11.9</v>
       </c>
       <c r="B70" t="n">
-        <v>28.4</v>
+        <v>26.7</v>
       </c>
       <c r="C70" t="n">
-        <v>-42.54</v>
+        <v>-43.07</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>35.6</v>
+        <v>29.9</v>
       </c>
       <c r="B71" t="n">
-        <v>26.1</v>
+        <v>5.3</v>
       </c>
       <c r="C71" t="n">
-        <v>-1.75</v>
+        <v>24.93</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>13.9</v>
+        <v>7.6</v>
       </c>
       <c r="B72" t="n">
-        <v>26.1</v>
+        <v>23.5</v>
       </c>
       <c r="C72" t="n">
-        <v>-38.02</v>
+        <v>-44.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>12</v>
+        <v>12.9</v>
       </c>
       <c r="B73" t="n">
-        <v>28.7</v>
+        <v>27</v>
       </c>
       <c r="C73" t="n">
-        <v>-45.74</v>
+        <v>-41.95</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>20.3</v>
+        <v>7.2</v>
       </c>
       <c r="B74" t="n">
-        <v>4.5</v>
+        <v>19.2</v>
       </c>
       <c r="C74" t="n">
-        <v>10.45</v>
+        <v>-37.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>32.3</v>
+        <v>24.3</v>
       </c>
       <c r="B75" t="n">
-        <v>11.9</v>
+        <v>23</v>
       </c>
       <c r="C75" t="n">
-        <v>17.56</v>
+        <v>-15.9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="B76" t="n">
-        <v>24.5</v>
+        <v>0.1</v>
       </c>
       <c r="C76" t="n">
-        <v>-14.33</v>
+        <v>29.22</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>38</v>
+        <v>6.3</v>
       </c>
       <c r="B77" t="n">
-        <v>13</v>
+        <v>15.9</v>
       </c>
       <c r="C77" t="n">
-        <v>25.17</v>
+        <v>-33.12</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>32.5</v>
+        <v>28.4</v>
       </c>
       <c r="B78" t="n">
-        <v>10.1</v>
+        <v>6.6</v>
       </c>
       <c r="C78" t="n">
-        <v>21.05</v>
+        <v>20.12</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>22.1</v>
+        <v>9.5</v>
       </c>
       <c r="B79" t="n">
-        <v>4.1</v>
+        <v>18.4</v>
       </c>
       <c r="C79" t="n">
-        <v>14.16</v>
+        <v>-32.26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4</v>
+        <v>22.1</v>
       </c>
       <c r="C80" t="n">
-        <v>50.37</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>18.9</v>
+        <v>26.4</v>
       </c>
       <c r="B81" t="n">
-        <v>4.1</v>
+        <v>17.3</v>
       </c>
       <c r="C81" t="n">
-        <v>8.81</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>13.4</v>
+        <v>16.2</v>
       </c>
       <c r="B82" t="n">
-        <v>1.4</v>
+        <v>26.2</v>
       </c>
       <c r="C82" t="n">
-        <v>4.34</v>
+        <v>-35.04</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.2</v>
+        <v>19.5</v>
       </c>
       <c r="B83" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="C83" t="n">
-        <v>-43.44</v>
+        <v>-22.98</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>20.8</v>
+        <v>39.9</v>
       </c>
       <c r="B84" t="n">
-        <v>5.7</v>
+        <v>24.5</v>
       </c>
       <c r="C84" t="n">
-        <v>9.19</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>28.7</v>
+        <v>14.6</v>
       </c>
       <c r="B85" t="n">
-        <v>29.3</v>
+        <v>1.8</v>
       </c>
       <c r="C85" t="n">
-        <v>-18.88</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>12.4</v>
+        <v>21.6</v>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>29.3</v>
       </c>
       <c r="C86" t="n">
-        <v>-5.38</v>
+        <v>-31.61</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>34.7</v>
+        <v>31.2</v>
       </c>
       <c r="B87" t="n">
-        <v>12</v>
+        <v>18.7</v>
       </c>
       <c r="C87" t="n">
-        <v>21.4</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>24.4</v>
+        <v>17.4</v>
       </c>
       <c r="B88" t="n">
-        <v>16.8</v>
+        <v>12.8</v>
       </c>
       <c r="C88" t="n">
-        <v>-4.21</v>
+        <v>-9.18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5.1</v>
+        <v>24</v>
       </c>
       <c r="B89" t="n">
-        <v>9.699999999999999</v>
+        <v>29.4</v>
       </c>
       <c r="C89" t="n">
-        <v>-24.05</v>
+        <v>-27.8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8.300000000000001</v>
+        <v>30.8</v>
       </c>
       <c r="B90" t="n">
-        <v>10.8</v>
+        <v>26.2</v>
       </c>
       <c r="C90" t="n">
-        <v>-20.62</v>
+        <v>-10.82</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>11.3</v>
+        <v>36.8</v>
       </c>
       <c r="B91" t="n">
-        <v>26.1</v>
+        <v>24</v>
       </c>
       <c r="C91" t="n">
-        <v>-42.36</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>36.2</v>
+        <v>19</v>
       </c>
       <c r="B92" t="n">
-        <v>25.2</v>
+        <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>0.83</v>
+        <v>-6.88</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>39.3</v>
+        <v>19.9</v>
       </c>
       <c r="B93" t="n">
-        <v>20.4</v>
+        <v>25.9</v>
       </c>
       <c r="C93" t="n">
-        <v>14.4</v>
+        <v>-28.37</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>39.3</v>
+        <v>35.5</v>
       </c>
       <c r="B94" t="n">
-        <v>13.4</v>
+        <v>10.1</v>
       </c>
       <c r="C94" t="n">
-        <v>26.64</v>
+        <v>25.67</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="B95" t="n">
-        <v>8.1</v>
+        <v>6.1</v>
       </c>
       <c r="C95" t="n">
-        <v>26.55</v>
+        <v>29.64</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>39.9</v>
+        <v>34.4</v>
       </c>
       <c r="B96" t="n">
-        <v>15.2</v>
+        <v>21.6</v>
       </c>
       <c r="C96" t="n">
-        <v>24.5</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>23.8</v>
+        <v>35</v>
       </c>
       <c r="B97" t="n">
-        <v>18.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>-7.66</v>
+        <v>25.37</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>18.7</v>
+        <v>38.4</v>
       </c>
       <c r="B98" t="n">
-        <v>13.2</v>
+        <v>16.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-7.44</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>11.8</v>
+        <v>17.7</v>
       </c>
       <c r="B99" t="n">
-        <v>19.8</v>
+        <v>22</v>
       </c>
       <c r="C99" t="n">
-        <v>-30.51</v>
+        <v>-25.07</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>22.9</v>
+        <v>25.8</v>
       </c>
       <c r="B100" t="n">
-        <v>10.8</v>
+        <v>23</v>
       </c>
       <c r="C100" t="n">
-        <v>3.78</v>
+        <v>-13.41</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>36.2</v>
+        <v>12.1</v>
       </c>
       <c r="B101" t="n">
-        <v>15</v>
+        <v>1.7</v>
       </c>
       <c r="C101" t="n">
-        <v>18.66</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>33.9</v>
+        <v>32.5</v>
       </c>
       <c r="B102" t="n">
-        <v>19.2</v>
+        <v>28.8</v>
       </c>
       <c r="C102" t="n">
-        <v>7.47</v>
+        <v>-12.63</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>21.6</v>
+        <v>30</v>
       </c>
       <c r="B103" t="n">
-        <v>9.199999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="C103" t="n">
-        <v>4.4</v>
+        <v>-9.65</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>38.8</v>
+        <v>22.8</v>
       </c>
       <c r="B104" t="n">
-        <v>29.2</v>
+        <v>7.9</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.82</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>6.5</v>
+        <v>39.7</v>
       </c>
       <c r="B105" t="n">
-        <v>25.7</v>
+        <v>10.4</v>
       </c>
       <c r="C105" t="n">
-        <v>-49.68</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>5.2</v>
+        <v>27.5</v>
       </c>
       <c r="B106" t="n">
-        <v>3.9</v>
+        <v>14.6</v>
       </c>
       <c r="C106" t="n">
-        <v>-13.74</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>11</v>
+        <v>26.2</v>
       </c>
       <c r="B107" t="n">
-        <v>14.6</v>
+        <v>10.9</v>
       </c>
       <c r="C107" t="n">
-        <v>-22.75</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>14.3</v>
+        <v>32.2</v>
       </c>
       <c r="B108" t="n">
-        <v>1.1</v>
+        <v>23.3</v>
       </c>
       <c r="C108" t="n">
-        <v>6.37</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>22.8</v>
+        <v>15.8</v>
       </c>
       <c r="B109" t="n">
-        <v>8.800000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="C109" t="n">
-        <v>7.11</v>
+        <v>-16.11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>11.2</v>
+        <v>13</v>
       </c>
       <c r="B110" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="C110" t="n">
-        <v>-7.21</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>35.9</v>
+        <v>28.6</v>
       </c>
       <c r="B111" t="n">
-        <v>26.3</v>
+        <v>14</v>
       </c>
       <c r="C111" t="n">
-        <v>-1.6</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>14.5</v>
+        <v>8.6</v>
       </c>
       <c r="B112" t="n">
-        <v>6.1</v>
+        <v>3.4</v>
       </c>
       <c r="C112" t="n">
-        <v>-2.04</v>
+        <v>-7.03</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>35.8</v>
+        <v>24.6</v>
       </c>
       <c r="B113" t="n">
-        <v>28</v>
+        <v>19.7</v>
       </c>
       <c r="C113" t="n">
-        <v>-4.74</v>
+        <v>-9.52</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>22.3</v>
+        <v>7.1</v>
       </c>
       <c r="B114" t="n">
-        <v>2.8</v>
+        <v>12.5</v>
       </c>
       <c r="C114" t="n">
-        <v>16.76</v>
+        <v>-25.73</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>13.1</v>
+        <v>38.7</v>
       </c>
       <c r="B115" t="n">
-        <v>26.7</v>
+        <v>10.6</v>
       </c>
       <c r="C115" t="n">
-        <v>-40.4</v>
+        <v>30.09</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>38.1</v>
+        <v>29.1</v>
       </c>
       <c r="B116" t="n">
-        <v>4.1</v>
+        <v>19.5</v>
       </c>
       <c r="C116" t="n">
-        <v>40.9</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>36</v>
+        <v>18.6</v>
       </c>
       <c r="B117" t="n">
-        <v>21.1</v>
+        <v>14.7</v>
       </c>
       <c r="C117" t="n">
-        <v>7.66</v>
+        <v>-10.57</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>30.9</v>
+        <v>35</v>
       </c>
       <c r="B118" t="n">
-        <v>10.7</v>
+        <v>26.9</v>
       </c>
       <c r="C118" t="n">
-        <v>17.32</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>22.4</v>
+        <v>27.6</v>
       </c>
       <c r="B119" t="n">
-        <v>1.6</v>
+        <v>7.9</v>
       </c>
       <c r="C119" t="n">
-        <v>19.03</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>23.3</v>
+        <v>38.2</v>
       </c>
       <c r="B120" t="n">
-        <v>10.1</v>
+        <v>26.8</v>
       </c>
       <c r="C120" t="n">
-        <v>5.67</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="B121" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="C121" t="n">
-        <v>-49.86</v>
+        <v>-42.26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5.3</v>
+        <v>12.7</v>
       </c>
       <c r="B122" t="n">
-        <v>16.2</v>
+        <v>24.8</v>
       </c>
       <c r="C122" t="n">
-        <v>-35.08</v>
+        <v>-38.36</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>16.3</v>
+        <v>18.8</v>
       </c>
       <c r="B123" t="n">
-        <v>20.2</v>
+        <v>14.5</v>
       </c>
       <c r="C123" t="n">
-        <v>-23.69</v>
+        <v>-9.880000000000001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>35.7</v>
+        <v>28.9</v>
       </c>
       <c r="B124" t="n">
-        <v>5.5</v>
+        <v>27</v>
       </c>
       <c r="C124" t="n">
-        <v>34.44</v>
+        <v>-15.4</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>22.5</v>
+        <v>25.8</v>
       </c>
       <c r="B125" t="n">
-        <v>25.5</v>
+        <v>3.1</v>
       </c>
       <c r="C125" t="n">
-        <v>-22.59</v>
+        <v>22.05</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>19.3</v>
+        <v>21.8</v>
       </c>
       <c r="B126" t="n">
-        <v>22.1</v>
+        <v>24.3</v>
       </c>
       <c r="C126" t="n">
-        <v>-22</v>
+        <v>-22.37</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="B127" t="n">
-        <v>21</v>
+        <v>4.5</v>
       </c>
       <c r="C127" t="n">
-        <v>-17.4</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>38</v>
+        <v>29.7</v>
       </c>
       <c r="B128" t="n">
-        <v>11.8</v>
+        <v>18</v>
       </c>
       <c r="C128" t="n">
-        <v>27.27</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>6.3</v>
+        <v>36.9</v>
       </c>
       <c r="B129" t="n">
-        <v>25.1</v>
+        <v>26.2</v>
       </c>
       <c r="C129" t="n">
-        <v>-48.97</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>9.199999999999999</v>
+        <v>30.3</v>
       </c>
       <c r="B130" t="n">
-        <v>22.6</v>
+        <v>25.6</v>
       </c>
       <c r="C130" t="n">
-        <v>-39.75</v>
+        <v>-10.58</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>19</v>
+        <v>39.1</v>
       </c>
       <c r="B131" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="C131" t="n">
-        <v>10.37</v>
+        <v>39.84</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>36.7</v>
+        <v>18.9</v>
       </c>
       <c r="B132" t="n">
-        <v>23.4</v>
+        <v>6</v>
       </c>
       <c r="C132" t="n">
-        <v>4.81</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>37.8</v>
+        <v>36.8</v>
       </c>
       <c r="B133" t="n">
-        <v>18.2</v>
+        <v>10.3</v>
       </c>
       <c r="C133" t="n">
-        <v>15.74</v>
+        <v>27.47</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9.199999999999999</v>
+        <v>30.2</v>
       </c>
       <c r="B134" t="n">
-        <v>23.7</v>
+        <v>8.6</v>
       </c>
       <c r="C134" t="n">
-        <v>-41.67</v>
+        <v>19.55</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>21.4</v>
+        <v>18.9</v>
       </c>
       <c r="B135" t="n">
-        <v>16.4</v>
+        <v>17.3</v>
       </c>
       <c r="C135" t="n">
-        <v>-8.52</v>
+        <v>-14.71</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="C136" t="n">
-        <v>4.89</v>
+        <v>-8.18</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>13.7</v>
+        <v>27.4</v>
       </c>
       <c r="B137" t="n">
-        <v>4.1</v>
+        <v>21.7</v>
       </c>
       <c r="C137" t="n">
-        <v>0.12</v>
+        <v>-8.44</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>13.8</v>
+        <v>34.8</v>
       </c>
       <c r="B138" t="n">
-        <v>26.5</v>
+        <v>11.7</v>
       </c>
       <c r="C138" t="n">
-        <v>-38.88</v>
+        <v>21.66</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>32.6</v>
+        <v>31.2</v>
       </c>
       <c r="B139" t="n">
-        <v>22.7</v>
+        <v>21.5</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.82</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>39.4</v>
+        <v>34</v>
       </c>
       <c r="B140" t="n">
-        <v>23.2</v>
+        <v>9.9</v>
       </c>
       <c r="C140" t="n">
-        <v>9.67</v>
+        <v>23.54</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>23.7</v>
+        <v>36.7</v>
       </c>
       <c r="B141" t="n">
-        <v>25.3</v>
+        <v>15.7</v>
       </c>
       <c r="C141" t="n">
-        <v>-20.24</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10</v>
+        <v>36.1</v>
       </c>
       <c r="B142" t="n">
-        <v>7</v>
+        <v>1.9</v>
       </c>
       <c r="C142" t="n">
-        <v>-11.14</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>24.8</v>
+        <v>5.1</v>
       </c>
       <c r="B143" t="n">
-        <v>11.7</v>
+        <v>20.5</v>
       </c>
       <c r="C143" t="n">
-        <v>5.38</v>
+        <v>-43.31</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="B144" t="n">
-        <v>18.4</v>
+        <v>29</v>
       </c>
       <c r="C144" t="n">
-        <v>-15.36</v>
+        <v>-34.39</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>33.4</v>
+        <v>19.7</v>
       </c>
       <c r="B145" t="n">
-        <v>28.6</v>
+        <v>23.8</v>
       </c>
       <c r="C145" t="n">
-        <v>-9.800000000000001</v>
+        <v>-24.96</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>12.9</v>
+        <v>28.7</v>
       </c>
       <c r="B146" t="n">
-        <v>9.4</v>
+        <v>12.4</v>
       </c>
       <c r="C146" t="n">
-        <v>-10.49</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>25.7</v>
+        <v>20.7</v>
       </c>
       <c r="B147" t="n">
-        <v>2.9</v>
+        <v>29.9</v>
       </c>
       <c r="C147" t="n">
-        <v>22.27</v>
+        <v>-34.17</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>39.1</v>
+        <v>18.1</v>
       </c>
       <c r="B148" t="n">
-        <v>25.8</v>
+        <v>29</v>
       </c>
       <c r="C148" t="n">
-        <v>4.62</v>
+        <v>-36.88</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>20.2</v>
+        <v>35</v>
       </c>
       <c r="B149" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="C149" t="n">
-        <v>3.29</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>24</v>
+        <v>25.3</v>
       </c>
       <c r="B150" t="n">
-        <v>26</v>
+        <v>28.9</v>
       </c>
       <c r="C150" t="n">
-        <v>-20.96</v>
+        <v>-24.76</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>31</v>
+        <v>18.7</v>
       </c>
       <c r="B151" t="n">
-        <v>4.2</v>
+        <v>15.8</v>
       </c>
       <c r="C151" t="n">
-        <v>28.86</v>
+        <v>-12.36</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>26.4</v>
+        <v>17.5</v>
       </c>
       <c r="B152" t="n">
-        <v>27.3</v>
+        <v>19.2</v>
       </c>
       <c r="C152" t="n">
-        <v>-19.22</v>
+        <v>-20.41</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>15.8</v>
+        <v>10.7</v>
       </c>
       <c r="B153" t="n">
-        <v>6.2</v>
+        <v>25.9</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.04</v>
+        <v>-43.64</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>38.3</v>
+        <v>18.2</v>
       </c>
       <c r="B154" t="n">
-        <v>11.5</v>
+        <v>20.6</v>
       </c>
       <c r="C154" t="n">
-        <v>28.29</v>
+        <v>-21.75</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>29.6</v>
+        <v>31.5</v>
       </c>
       <c r="B155" t="n">
-        <v>21.5</v>
+        <v>15</v>
       </c>
       <c r="C155" t="n">
-        <v>-3.73</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>25.7</v>
+        <v>7.3</v>
       </c>
       <c r="B156" t="n">
-        <v>26.1</v>
+        <v>24.5</v>
       </c>
       <c r="C156" t="n">
-        <v>-18.3</v>
+        <v>-46.78</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>5.6</v>
+        <v>25.4</v>
       </c>
       <c r="B157" t="n">
-        <v>26.4</v>
+        <v>19.4</v>
       </c>
       <c r="C157" t="n">
-        <v>-52.41</v>
+        <v>-7.66</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="B158" t="n">
-        <v>24.2</v>
+        <v>27.7</v>
       </c>
       <c r="C158" t="n">
-        <v>-17.81</v>
+        <v>-27.26</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9.6</v>
+        <v>16.2</v>
       </c>
       <c r="B159" t="n">
-        <v>14.9</v>
+        <v>25</v>
       </c>
       <c r="C159" t="n">
-        <v>-25.62</v>
+        <v>-32.91</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>21.6</v>
+        <v>12.3</v>
       </c>
       <c r="B160" t="n">
-        <v>12.1</v>
+        <v>23.6</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.67</v>
+        <v>-36.88</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>26.2</v>
+        <v>35.1</v>
       </c>
       <c r="B161" t="n">
-        <v>28.7</v>
+        <v>23.5</v>
       </c>
       <c r="C161" t="n">
-        <v>-22.01</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>13</v>
+        <v>18.8</v>
       </c>
       <c r="B162" t="n">
-        <v>27.6</v>
+        <v>23.7</v>
       </c>
       <c r="C162" t="n">
-        <v>-42.14</v>
+        <v>-26.28</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>36</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="B163" t="n">
-        <v>22.9</v>
+        <v>22.4</v>
       </c>
       <c r="C163" t="n">
-        <v>4.51</v>
+        <v>-39.89</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>33</v>
+        <v>27.4</v>
       </c>
       <c r="B164" t="n">
-        <v>12</v>
+        <v>21.9</v>
       </c>
       <c r="C164" t="n">
-        <v>18.56</v>
+        <v>-8.800000000000001</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>30.7</v>
+        <v>39.1</v>
       </c>
       <c r="B165" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="C165" t="n">
-        <v>-15.71</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>10</v>
+        <v>12.2</v>
       </c>
       <c r="B166" t="n">
-        <v>11.7</v>
+        <v>19.9</v>
       </c>
       <c r="C166" t="n">
-        <v>-19.35</v>
+        <v>-30.46</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>32.9</v>
+        <v>20.8</v>
       </c>
       <c r="B167" t="n">
-        <v>13.4</v>
+        <v>16.2</v>
       </c>
       <c r="C167" t="n">
-        <v>15.94</v>
+        <v>-9.59</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
       <c r="B168" t="n">
-        <v>16.6</v>
+        <v>12</v>
       </c>
       <c r="C168" t="n">
-        <v>-25.58</v>
+        <v>-16.88</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>31.3</v>
+        <v>32.9</v>
       </c>
       <c r="B169" t="n">
-        <v>13.4</v>
+        <v>11.2</v>
       </c>
       <c r="C169" t="n">
-        <v>13.27</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>38.4</v>
+        <v>16.6</v>
       </c>
       <c r="B170" t="n">
-        <v>29.4</v>
+        <v>3</v>
       </c>
       <c r="C170" t="n">
-        <v>-2.84</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>21.7</v>
+        <v>20</v>
       </c>
       <c r="B171" t="n">
-        <v>25.7</v>
+        <v>5.6</v>
       </c>
       <c r="C171" t="n">
-        <v>-24.28</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>37.2</v>
+        <v>32.9</v>
       </c>
       <c r="B172" t="n">
-        <v>12.7</v>
+        <v>24.8</v>
       </c>
       <c r="C172" t="n">
-        <v>24.35</v>
+        <v>-4.84</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>37.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="B173" t="n">
-        <v>16</v>
+        <v>23.1</v>
       </c>
       <c r="C173" t="n">
-        <v>19.42</v>
+        <v>-40.97</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>27.8</v>
+        <v>25</v>
       </c>
       <c r="B174" t="n">
-        <v>19</v>
+        <v>0.2</v>
       </c>
       <c r="C174" t="n">
-        <v>-2.37</v>
+        <v>25.89</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>23</v>
+        <v>21.1</v>
       </c>
       <c r="B175" t="n">
-        <v>7.2</v>
+        <v>15.3</v>
       </c>
       <c r="C175" t="n">
-        <v>10.24</v>
+        <v>-7.49</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>12.5</v>
+        <v>32.9</v>
       </c>
       <c r="B176" t="n">
-        <v>15.8</v>
+        <v>9.9</v>
       </c>
       <c r="C176" t="n">
-        <v>-22.35</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>29.3</v>
+        <v>5.5</v>
       </c>
       <c r="B177" t="n">
-        <v>15.4</v>
+        <v>7.8</v>
       </c>
       <c r="C177" t="n">
-        <v>6.43</v>
+        <v>-20.01</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>37.6</v>
+        <v>25.3</v>
       </c>
       <c r="B178" t="n">
-        <v>21</v>
+        <v>4.6</v>
       </c>
       <c r="C178" t="n">
-        <v>10.51</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>30.7</v>
+        <v>17.6</v>
       </c>
       <c r="B179" t="n">
-        <v>17.1</v>
+        <v>6.9</v>
       </c>
       <c r="C179" t="n">
-        <v>5.8</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>27.7</v>
+        <v>14.4</v>
       </c>
       <c r="B180" t="n">
-        <v>21.3</v>
+        <v>8</v>
       </c>
       <c r="C180" t="n">
-        <v>-6.56</v>
+        <v>-5.6</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>11.8</v>
+        <v>18.8</v>
       </c>
       <c r="B181" t="n">
-        <v>17.1</v>
+        <v>29.8</v>
       </c>
       <c r="C181" t="n">
-        <v>-25.79</v>
+        <v>-37.14</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>37.7</v>
+        <v>7.7</v>
       </c>
       <c r="B182" t="n">
-        <v>7.7</v>
+        <v>26.3</v>
       </c>
       <c r="C182" t="n">
-        <v>33.93</v>
+        <v>-49.33</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>34.5</v>
+        <v>37.2</v>
       </c>
       <c r="B183" t="n">
-        <v>1.4</v>
+        <v>19.3</v>
       </c>
       <c r="C183" t="n">
-        <v>39.6</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>39</v>
+        <v>24.9</v>
       </c>
       <c r="B184" t="n">
-        <v>0.1</v>
+        <v>15.5</v>
       </c>
       <c r="C184" t="n">
-        <v>49.4</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>5</v>
+        <v>17.4</v>
       </c>
       <c r="B185" t="n">
-        <v>10.9</v>
+        <v>20.4</v>
       </c>
       <c r="C185" t="n">
-        <v>-26.31</v>
+        <v>-22.72</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>21.9</v>
+        <v>9.6</v>
       </c>
       <c r="B186" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="C186" t="n">
-        <v>-15.73</v>
+        <v>-36.2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>31.1</v>
+        <v>39.9</v>
       </c>
       <c r="B187" t="n">
-        <v>12.1</v>
+        <v>24.2</v>
       </c>
       <c r="C187" t="n">
-        <v>15.21</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>26.5</v>
+        <v>18.2</v>
       </c>
       <c r="B188" t="n">
-        <v>5</v>
+        <v>18.1</v>
       </c>
       <c r="C188" t="n">
-        <v>19.94</v>
+        <v>-17.29</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>25.7</v>
+        <v>15.1</v>
       </c>
       <c r="B189" t="n">
-        <v>13.3</v>
+        <v>18.1</v>
       </c>
       <c r="C189" t="n">
-        <v>4.09</v>
+        <v>-22.44</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="B190" t="n">
-        <v>19.6</v>
+        <v>23.6</v>
       </c>
       <c r="C190" t="n">
-        <v>-27.32</v>
+        <v>-43.02</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>14.6</v>
+        <v>17.1</v>
       </c>
       <c r="B191" t="n">
-        <v>13.4</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>-14.64</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>5.6</v>
+        <v>29.2</v>
       </c>
       <c r="B192" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C192" t="n">
-        <v>-18.49</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>8.300000000000001</v>
+        <v>26</v>
       </c>
       <c r="B193" t="n">
-        <v>24.4</v>
+        <v>15.2</v>
       </c>
       <c r="C193" t="n">
-        <v>-44.4</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>27.4</v>
+        <v>7.7</v>
       </c>
       <c r="B194" t="n">
-        <v>0.4</v>
+        <v>22</v>
       </c>
       <c r="C194" t="n">
-        <v>29.48</v>
+        <v>-41.66</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>18.8</v>
+        <v>26.6</v>
       </c>
       <c r="B195" t="n">
-        <v>17.3</v>
+        <v>18.1</v>
       </c>
       <c r="C195" t="n">
-        <v>-14.44</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>17.6</v>
+        <v>7.6</v>
       </c>
       <c r="B196" t="n">
-        <v>11.2</v>
+        <v>24.9</v>
       </c>
       <c r="C196" t="n">
-        <v>-5.78</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>35.7</v>
+        <v>24.4</v>
       </c>
       <c r="B197" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="C197" t="n">
-        <v>33.56</v>
+        <v>19.54</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>26.8</v>
+        <v>38.5</v>
       </c>
       <c r="B198" t="n">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="C198" t="n">
-        <v>22.19</v>
+        <v>37.24</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>11.5</v>
+        <v>25.5</v>
       </c>
       <c r="B199" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="C199" t="n">
-        <v>-19.12</v>
+        <v>-4.11</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>12</v>
+        <v>26.4</v>
       </c>
       <c r="B200" t="n">
-        <v>19.4</v>
+        <v>12.7</v>
       </c>
       <c r="C200" t="n">
-        <v>-29.48</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>13.8</v>
+        <v>7.8</v>
       </c>
       <c r="B201" t="n">
-        <v>5.7</v>
+        <v>18.4</v>
       </c>
       <c r="C201" t="n">
-        <v>-2.51</v>
+        <v>-35.08</v>
       </c>
     </row>
   </sheetData>

--- a/Aufgabe_5/prognose_ergebnisse.xlsx
+++ b/Aufgabe_5/prognose_ergebnisse.xlsx
@@ -452,2202 +452,2202 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10</v>
+        <v>28.6</v>
       </c>
       <c r="B2" t="n">
-        <v>11.6</v>
+        <v>18.2</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.32</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>23.6</v>
+        <v>28.2</v>
       </c>
       <c r="B3" t="n">
-        <v>22.9</v>
+        <v>25.9</v>
       </c>
       <c r="C3" t="n">
-        <v>-16.88</v>
+        <v>-14.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20.9</v>
+        <v>5.9</v>
       </c>
       <c r="B4" t="n">
-        <v>23.5</v>
+        <v>19.1</v>
       </c>
       <c r="C4" t="n">
-        <v>-22.43</v>
+        <v>-39.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17.3</v>
+        <v>27.8</v>
       </c>
       <c r="B5" t="n">
-        <v>8.1</v>
+        <v>9.4</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.97</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25.5</v>
+        <v>36.1</v>
       </c>
       <c r="B6" t="n">
-        <v>3.1</v>
+        <v>16.4</v>
       </c>
       <c r="C6" t="n">
-        <v>21.55</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.7</v>
+        <v>15.3</v>
       </c>
       <c r="B7" t="n">
-        <v>12.9</v>
+        <v>23.9</v>
       </c>
       <c r="C7" t="n">
-        <v>-25.45</v>
+        <v>-32.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>21.3</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>17.3</v>
+        <v>15.9</v>
       </c>
       <c r="C8" t="n">
-        <v>-10.72</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22.6</v>
+        <v>37.2</v>
       </c>
       <c r="B9" t="n">
-        <v>23.4</v>
+        <v>0.6</v>
       </c>
       <c r="C9" t="n">
-        <v>-19.44</v>
+        <v>45.42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10</v>
+        <v>35.5</v>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>14.4</v>
       </c>
       <c r="C10" t="n">
-        <v>-30.72</v>
+        <v>18.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>27.6</v>
+        <v>21.7</v>
       </c>
       <c r="B11" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="C11" t="n">
-        <v>21.11</v>
+        <v>18.81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.9</v>
+        <v>26.7</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4</v>
+        <v>24.6</v>
       </c>
       <c r="C12" t="n">
-        <v>-44.19</v>
+        <v>-14.77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>16.4</v>
       </c>
       <c r="B13" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>-46.45</v>
+        <v>-29.01</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.6</v>
+        <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>7.4</v>
       </c>
       <c r="C14" t="n">
-        <v>-30.09</v>
+        <v>-16.81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>39.5</v>
+        <v>7.9</v>
       </c>
       <c r="B15" t="n">
-        <v>24.4</v>
+        <v>22.4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.83</v>
+        <v>-42.05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>20.6</v>
+        <v>1.9</v>
       </c>
       <c r="C16" t="n">
-        <v>-33.03</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>30.3</v>
+        <v>23.8</v>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="C17" t="n">
-        <v>-5.95</v>
+        <v>-16.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>10.8</v>
+        <v>20.4</v>
       </c>
       <c r="C18" t="n">
-        <v>-23.7</v>
+        <v>-39.97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37.8</v>
+        <v>14.7</v>
       </c>
       <c r="B19" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="C19" t="n">
-        <v>37.86</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>35.7</v>
+        <v>16.9</v>
       </c>
       <c r="B20" t="n">
-        <v>7.7</v>
+        <v>1.7</v>
       </c>
       <c r="C20" t="n">
-        <v>30.28</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>39.6</v>
+        <v>34.8</v>
       </c>
       <c r="B21" t="n">
-        <v>13.9</v>
+        <v>2.2</v>
       </c>
       <c r="C21" t="n">
-        <v>25.7</v>
+        <v>38.58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8.1</v>
+        <v>21.1</v>
       </c>
       <c r="B22" t="n">
-        <v>23.7</v>
+        <v>26.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-44.03</v>
+        <v>-27.45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>35.9</v>
+        <v>15.3</v>
       </c>
       <c r="B23" t="n">
-        <v>7.4</v>
+        <v>24.8</v>
       </c>
       <c r="C23" t="n">
-        <v>31.14</v>
+        <v>-34.04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>29.9</v>
+        <v>11.9</v>
       </c>
       <c r="B24" t="n">
-        <v>25.4</v>
+        <v>1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>-10.89</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>32.7</v>
+        <v>21.7</v>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="C25" t="n">
-        <v>10.51</v>
+        <v>15.78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8.300000000000001</v>
+        <v>39.3</v>
       </c>
       <c r="B26" t="n">
-        <v>13.9</v>
+        <v>23</v>
       </c>
       <c r="C26" t="n">
-        <v>-26.24</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13.8</v>
+        <v>31.4</v>
       </c>
       <c r="B27" t="n">
-        <v>11.5</v>
+        <v>14.2</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.83</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>12</v>
+        <v>6.1</v>
       </c>
       <c r="B28" t="n">
-        <v>26</v>
+        <v>23.7</v>
       </c>
       <c r="C28" t="n">
-        <v>-41.66</v>
+        <v>-47.35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10</v>
+        <v>36.3</v>
       </c>
       <c r="B29" t="n">
-        <v>24.5</v>
+        <v>18</v>
       </c>
       <c r="C29" t="n">
-        <v>-42.3</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>37.7</v>
+        <v>34.9</v>
       </c>
       <c r="B30" t="n">
-        <v>19.6</v>
+        <v>22.1</v>
       </c>
       <c r="C30" t="n">
-        <v>12.39</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>22.8</v>
+        <v>38.7</v>
       </c>
       <c r="B31" t="n">
-        <v>3.5</v>
+        <v>12.4</v>
       </c>
       <c r="C31" t="n">
-        <v>16.36</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31.6</v>
+        <v>17.9</v>
       </c>
       <c r="B32" t="n">
-        <v>10.1</v>
+        <v>24.6</v>
       </c>
       <c r="C32" t="n">
-        <v>19.2</v>
+        <v>-29.37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16.3</v>
+        <v>28.9</v>
       </c>
       <c r="B33" t="n">
-        <v>11.8</v>
+        <v>19.5</v>
       </c>
       <c r="C33" t="n">
-        <v>-9.220000000000001</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>39.6</v>
+        <v>27.5</v>
       </c>
       <c r="B34" t="n">
-        <v>6.7</v>
+        <v>9.6</v>
       </c>
       <c r="C34" t="n">
-        <v>38.53</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>8.699999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="B35" t="n">
-        <v>14.2</v>
+        <v>0.5</v>
       </c>
       <c r="C35" t="n">
-        <v>-26.11</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>15</v>
+        <v>6.6</v>
       </c>
       <c r="B36" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.15</v>
+        <v>-14.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>29.1</v>
       </c>
       <c r="B37" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>-14.55</v>
+        <v>33.05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>38.6</v>
+        <v>27.4</v>
       </c>
       <c r="B38" t="n">
-        <v>8.199999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="C38" t="n">
-        <v>34.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>24.9</v>
+        <v>21.9</v>
       </c>
       <c r="B39" t="n">
-        <v>4.9</v>
+        <v>19.1</v>
       </c>
       <c r="C39" t="n">
-        <v>17.35</v>
+        <v>-12.93</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>37.9</v>
+        <v>23.8</v>
       </c>
       <c r="B40" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="C40" t="n">
-        <v>23.59</v>
+        <v>-27.42</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7.2</v>
+        <v>26.7</v>
       </c>
       <c r="B41" t="n">
-        <v>24.9</v>
+        <v>5.9</v>
       </c>
       <c r="C41" t="n">
-        <v>-47.66</v>
+        <v>18.55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>31.3</v>
+        <v>13.9</v>
       </c>
       <c r="B42" t="n">
-        <v>2.4</v>
+        <v>22.6</v>
       </c>
       <c r="C42" t="n">
-        <v>32.42</v>
+        <v>-32.45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>22.6</v>
+        <v>17.8</v>
       </c>
       <c r="B43" t="n">
-        <v>24.4</v>
+        <v>19.5</v>
       </c>
       <c r="C43" t="n">
-        <v>-21.22</v>
+        <v>-20.45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9.300000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="B44" t="n">
-        <v>25</v>
+        <v>19.9</v>
       </c>
       <c r="C44" t="n">
-        <v>-44.35</v>
+        <v>-19.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>13.2</v>
+        <v>28.4</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1</v>
+        <v>23.7</v>
       </c>
       <c r="C45" t="n">
-        <v>6.48</v>
+        <v>-10.35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B46" t="n">
-        <v>4.1</v>
+        <v>14.5</v>
       </c>
       <c r="C46" t="n">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>18.9</v>
+        <v>13.9</v>
       </c>
       <c r="B47" t="n">
-        <v>18.4</v>
+        <v>12.1</v>
       </c>
       <c r="C47" t="n">
-        <v>-16.67</v>
+        <v>-13.74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>22.7</v>
+        <v>18.4</v>
       </c>
       <c r="B48" t="n">
-        <v>19.4</v>
+        <v>4.6</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.14</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>38.6</v>
+        <v>13.4</v>
       </c>
       <c r="B49" t="n">
-        <v>27.1</v>
+        <v>7.4</v>
       </c>
       <c r="C49" t="n">
-        <v>0.52</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>34.8</v>
+        <v>37.5</v>
       </c>
       <c r="B50" t="n">
-        <v>28.1</v>
+        <v>27.4</v>
       </c>
       <c r="C50" t="n">
-        <v>-7.57</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="B51" t="n">
-        <v>15</v>
+        <v>24.4</v>
       </c>
       <c r="C51" t="n">
-        <v>-15.42</v>
+        <v>-31.17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.2</v>
+        <v>13.4</v>
       </c>
       <c r="B52" t="n">
-        <v>7</v>
+        <v>15.3</v>
       </c>
       <c r="C52" t="n">
-        <v>-19.09</v>
+        <v>-20.27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>35.5</v>
+        <v>11</v>
       </c>
       <c r="B53" t="n">
-        <v>15.4</v>
+        <v>7.5</v>
       </c>
       <c r="C53" t="n">
-        <v>16.22</v>
+        <v>-10.35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>38.4</v>
+        <v>21.6</v>
       </c>
       <c r="B54" t="n">
-        <v>9.699999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="C54" t="n">
-        <v>31.19</v>
+        <v>-6.84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>26.6</v>
+        <v>37.5</v>
       </c>
       <c r="B55" t="n">
-        <v>18.6</v>
+        <v>25.2</v>
       </c>
       <c r="C55" t="n">
-        <v>-4.25</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>39.7</v>
+        <v>34.3</v>
       </c>
       <c r="B56" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="C56" t="n">
-        <v>4.84</v>
+        <v>-4.48</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>29</v>
+        <v>28.2</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="C57" t="n">
-        <v>31.99</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>31.9</v>
+        <v>27.9</v>
       </c>
       <c r="B58" t="n">
-        <v>17.5</v>
+        <v>16.9</v>
       </c>
       <c r="C58" t="n">
-        <v>6.51</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>27.7</v>
+        <v>29.4</v>
       </c>
       <c r="B59" t="n">
-        <v>16.6</v>
+        <v>5.5</v>
       </c>
       <c r="C59" t="n">
-        <v>1.14</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>27.2</v>
+        <v>16.6</v>
       </c>
       <c r="B60" t="n">
-        <v>13.5</v>
+        <v>25.8</v>
       </c>
       <c r="C60" t="n">
-        <v>5.84</v>
+        <v>-33.67</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>12.9</v>
+        <v>35.8</v>
       </c>
       <c r="B61" t="n">
-        <v>18.4</v>
+        <v>29.6</v>
       </c>
       <c r="C61" t="n">
-        <v>-26.62</v>
+        <v>-8.58</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>31</v>
+        <v>20.5</v>
       </c>
       <c r="B62" t="n">
-        <v>26.3</v>
+        <v>10.1</v>
       </c>
       <c r="C62" t="n">
-        <v>-10.66</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>28.7</v>
+        <v>37.8</v>
       </c>
       <c r="B63" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="C63" t="n">
-        <v>22.05</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>18.3</v>
+        <v>14.1</v>
       </c>
       <c r="B64" t="n">
-        <v>7.9</v>
+        <v>27</v>
       </c>
       <c r="C64" t="n">
-        <v>1.05</v>
+        <v>-39.95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6.7</v>
+        <v>12.9</v>
       </c>
       <c r="B65" t="n">
-        <v>29.8</v>
+        <v>6.1</v>
       </c>
       <c r="C65" t="n">
-        <v>-57.22</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>36.4</v>
+        <v>29.9</v>
       </c>
       <c r="B66" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="C66" t="n">
-        <v>31.97</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>12.6</v>
+        <v>11.4</v>
       </c>
       <c r="B67" t="n">
-        <v>11.4</v>
+        <v>14.6</v>
       </c>
       <c r="C67" t="n">
-        <v>-14.65</v>
+        <v>-22.34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>13.6</v>
+        <v>31.4</v>
       </c>
       <c r="B68" t="n">
-        <v>24</v>
+        <v>4.5</v>
       </c>
       <c r="C68" t="n">
-        <v>-35.44</v>
+        <v>28.84</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>31.1</v>
+        <v>5.4</v>
       </c>
       <c r="B69" t="n">
-        <v>20.1</v>
+        <v>14.1</v>
       </c>
       <c r="C69" t="n">
-        <v>0.55</v>
+        <v>-31.4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>11.9</v>
+        <v>13.7</v>
       </c>
       <c r="B70" t="n">
-        <v>26.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>-43.07</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>29.9</v>
+        <v>27.9</v>
       </c>
       <c r="B71" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="C71" t="n">
-        <v>24.93</v>
+        <v>24.46</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>7.6</v>
+        <v>39</v>
       </c>
       <c r="B72" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="C72" t="n">
-        <v>-44.5</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>12.9</v>
+        <v>17.5</v>
       </c>
       <c r="B73" t="n">
-        <v>27</v>
+        <v>6.8</v>
       </c>
       <c r="C73" t="n">
-        <v>-41.95</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="B74" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="C74" t="n">
-        <v>-37.5</v>
+        <v>-35.36</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>24.3</v>
+        <v>37.3</v>
       </c>
       <c r="B75" t="n">
-        <v>23</v>
+        <v>0.4</v>
       </c>
       <c r="C75" t="n">
-        <v>-15.9</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>26.9</v>
+        <v>35.9</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1</v>
+        <v>26.2</v>
       </c>
       <c r="C76" t="n">
-        <v>29.22</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6.3</v>
+        <v>14.7</v>
       </c>
       <c r="B77" t="n">
-        <v>15.9</v>
+        <v>11.2</v>
       </c>
       <c r="C77" t="n">
-        <v>-33.12</v>
+        <v>-10.81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>28.4</v>
+        <v>8.4</v>
       </c>
       <c r="B78" t="n">
-        <v>6.6</v>
+        <v>22.6</v>
       </c>
       <c r="C78" t="n">
-        <v>20.12</v>
+        <v>-41.57</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9.5</v>
+        <v>5.6</v>
       </c>
       <c r="B79" t="n">
-        <v>18.4</v>
+        <v>0.5</v>
       </c>
       <c r="C79" t="n">
-        <v>-32.26</v>
+        <v>-6.84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>40</v>
+        <v>7.6</v>
       </c>
       <c r="B80" t="n">
-        <v>22.1</v>
+        <v>11.7</v>
       </c>
       <c r="C80" t="n">
-        <v>11.75</v>
+        <v>-23.48</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>26.4</v>
+        <v>40</v>
       </c>
       <c r="B81" t="n">
-        <v>17.3</v>
+        <v>21.1</v>
       </c>
       <c r="C81" t="n">
-        <v>-2.26</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>16.2</v>
+        <v>13.7</v>
       </c>
       <c r="B82" t="n">
-        <v>26.2</v>
+        <v>8</v>
       </c>
       <c r="C82" t="n">
-        <v>-35.04</v>
+        <v>-6.76</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>19.5</v>
+        <v>31.7</v>
       </c>
       <c r="B83" t="n">
-        <v>22.5</v>
+        <v>5.9</v>
       </c>
       <c r="C83" t="n">
-        <v>-22.98</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>39.9</v>
+        <v>28.8</v>
       </c>
       <c r="B84" t="n">
-        <v>24.5</v>
+        <v>21.6</v>
       </c>
       <c r="C84" t="n">
-        <v>7.31</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>14.6</v>
+        <v>20.6</v>
       </c>
       <c r="B85" t="n">
-        <v>1.8</v>
+        <v>13.5</v>
       </c>
       <c r="C85" t="n">
-        <v>5.78</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>21.6</v>
+        <v>32.7</v>
       </c>
       <c r="B86" t="n">
-        <v>29.3</v>
+        <v>10.3</v>
       </c>
       <c r="C86" t="n">
-        <v>-31.61</v>
+        <v>20.67</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>31.2</v>
+        <v>14.9</v>
       </c>
       <c r="B87" t="n">
-        <v>18.7</v>
+        <v>3.7</v>
       </c>
       <c r="C87" t="n">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>17.4</v>
+        <v>27.1</v>
       </c>
       <c r="B88" t="n">
-        <v>12.8</v>
+        <v>5.8</v>
       </c>
       <c r="C88" t="n">
-        <v>-9.18</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>24</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="B89" t="n">
-        <v>29.4</v>
+        <v>27.5</v>
       </c>
       <c r="C89" t="n">
-        <v>-27.8</v>
+        <v>-48.15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>30.8</v>
+        <v>31.6</v>
       </c>
       <c r="B90" t="n">
-        <v>26.2</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>-10.82</v>
+        <v>31.85</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>36.8</v>
+        <v>37.4</v>
       </c>
       <c r="B91" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C91" t="n">
-        <v>3.06</v>
+        <v>39.69</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>19</v>
+        <v>31.4</v>
       </c>
       <c r="B92" t="n">
-        <v>13</v>
+        <v>15.2</v>
       </c>
       <c r="C92" t="n">
-        <v>-6.88</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>19.9</v>
+        <v>22.8</v>
       </c>
       <c r="B93" t="n">
-        <v>25.9</v>
+        <v>8.6</v>
       </c>
       <c r="C93" t="n">
-        <v>-28.37</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>35.5</v>
+        <v>29</v>
       </c>
       <c r="B94" t="n">
-        <v>10.1</v>
+        <v>3.4</v>
       </c>
       <c r="C94" t="n">
-        <v>25.67</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>33.6</v>
+        <v>26.2</v>
       </c>
       <c r="B95" t="n">
-        <v>6.1</v>
+        <v>20.1</v>
       </c>
       <c r="C95" t="n">
-        <v>29.64</v>
+        <v>-7.58</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>34.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="B96" t="n">
-        <v>21.6</v>
+        <v>13.3</v>
       </c>
       <c r="C96" t="n">
-        <v>3.35</v>
+        <v>-22.84</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>35</v>
+        <v>21.3</v>
       </c>
       <c r="B97" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="C97" t="n">
-        <v>25.37</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>38.4</v>
+        <v>29.2</v>
       </c>
       <c r="B98" t="n">
-        <v>16.8</v>
+        <v>19.6</v>
       </c>
       <c r="C98" t="n">
-        <v>18.54</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>17.7</v>
+        <v>10.4</v>
       </c>
       <c r="B99" t="n">
-        <v>22</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>-25.07</v>
+        <v>-12.77</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>25.8</v>
+        <v>24.2</v>
       </c>
       <c r="B100" t="n">
-        <v>23</v>
+        <v>21.9</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.41</v>
+        <v>-14.11</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>12.1</v>
+        <v>30.8</v>
       </c>
       <c r="B101" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="C101" t="n">
-        <v>1.81</v>
+        <v>31.59</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>32.5</v>
+        <v>9.4</v>
       </c>
       <c r="B102" t="n">
-        <v>28.8</v>
+        <v>0.5</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.63</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="B103" t="n">
-        <v>24.8</v>
+        <v>17.4</v>
       </c>
       <c r="C103" t="n">
-        <v>-9.65</v>
+        <v>-25.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>22.8</v>
+        <v>22.1</v>
       </c>
       <c r="B104" t="n">
-        <v>7.9</v>
+        <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>8.51</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>39.7</v>
+        <v>38.4</v>
       </c>
       <c r="B105" t="n">
-        <v>10.4</v>
+        <v>14.3</v>
       </c>
       <c r="C105" t="n">
-        <v>32.1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>27.5</v>
+        <v>11.1</v>
       </c>
       <c r="B106" t="n">
-        <v>14.6</v>
+        <v>24</v>
       </c>
       <c r="C106" t="n">
-        <v>4.38</v>
+        <v>-39.59</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>26.2</v>
+        <v>12.9</v>
       </c>
       <c r="B107" t="n">
-        <v>10.9</v>
+        <v>6.6</v>
       </c>
       <c r="C107" t="n">
-        <v>8.81</v>
+        <v>-5.6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>32.2</v>
+        <v>38.2</v>
       </c>
       <c r="B108" t="n">
-        <v>23.3</v>
+        <v>26.8</v>
       </c>
       <c r="C108" t="n">
-        <v>-3.33</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>15.8</v>
+        <v>10.5</v>
       </c>
       <c r="B109" t="n">
-        <v>15.2</v>
+        <v>25.9</v>
       </c>
       <c r="C109" t="n">
-        <v>-16.11</v>
+        <v>-43.97</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>13</v>
+        <v>22.6</v>
       </c>
       <c r="B110" t="n">
-        <v>3.2</v>
+        <v>26</v>
       </c>
       <c r="C110" t="n">
-        <v>0.63</v>
+        <v>-24.07</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>28.6</v>
+        <v>10.4</v>
       </c>
       <c r="B111" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>7.27</v>
+        <v>-14.38</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>8.6</v>
+        <v>20.8</v>
       </c>
       <c r="B112" t="n">
-        <v>3.4</v>
+        <v>10.4</v>
       </c>
       <c r="C112" t="n">
-        <v>-7.03</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>24.6</v>
+        <v>29.7</v>
       </c>
       <c r="B113" t="n">
-        <v>19.7</v>
+        <v>11</v>
       </c>
       <c r="C113" t="n">
-        <v>-9.52</v>
+        <v>14.44</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>7.1</v>
+        <v>23.7</v>
       </c>
       <c r="B114" t="n">
-        <v>12.5</v>
+        <v>26.4</v>
       </c>
       <c r="C114" t="n">
-        <v>-25.73</v>
+        <v>-22.96</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>38.7</v>
+        <v>22.2</v>
       </c>
       <c r="B115" t="n">
-        <v>10.6</v>
+        <v>24.1</v>
       </c>
       <c r="C115" t="n">
-        <v>30.09</v>
+        <v>-21.35</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>29.1</v>
+        <v>21.8</v>
       </c>
       <c r="B116" t="n">
-        <v>19.5</v>
+        <v>11.2</v>
       </c>
       <c r="C116" t="n">
-        <v>-1.7</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>18.6</v>
+        <v>24.9</v>
       </c>
       <c r="B117" t="n">
-        <v>14.7</v>
+        <v>20.7</v>
       </c>
       <c r="C117" t="n">
-        <v>-10.57</v>
+        <v>-10.81</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>35</v>
+        <v>28.1</v>
       </c>
       <c r="B118" t="n">
-        <v>26.9</v>
+        <v>3.4</v>
       </c>
       <c r="C118" t="n">
-        <v>-5.1</v>
+        <v>25.33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>27.6</v>
+        <v>16</v>
       </c>
       <c r="B119" t="n">
-        <v>7.9</v>
+        <v>28.4</v>
       </c>
       <c r="C119" t="n">
-        <v>16.48</v>
+        <v>-39.3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>38.2</v>
+        <v>33.3</v>
       </c>
       <c r="B120" t="n">
-        <v>26.8</v>
+        <v>20.8</v>
       </c>
       <c r="C120" t="n">
-        <v>0.39</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>14</v>
+        <v>33.3</v>
       </c>
       <c r="B121" t="n">
-        <v>28.2</v>
+        <v>13.7</v>
       </c>
       <c r="C121" t="n">
-        <v>-42.26</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>12.7</v>
+        <v>23.7</v>
       </c>
       <c r="B122" t="n">
-        <v>24.8</v>
+        <v>21.6</v>
       </c>
       <c r="C122" t="n">
-        <v>-38.36</v>
+        <v>-14.4</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>18.8</v>
+        <v>11.3</v>
       </c>
       <c r="B123" t="n">
-        <v>14.5</v>
+        <v>24.8</v>
       </c>
       <c r="C123" t="n">
-        <v>-9.880000000000001</v>
+        <v>-40.68</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>28.9</v>
+        <v>10.9</v>
       </c>
       <c r="B124" t="n">
-        <v>27</v>
+        <v>23.1</v>
       </c>
       <c r="C124" t="n">
-        <v>-15.4</v>
+        <v>-38.31</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>25.8</v>
+        <v>17.5</v>
       </c>
       <c r="B125" t="n">
-        <v>3.1</v>
+        <v>29.3</v>
       </c>
       <c r="C125" t="n">
-        <v>22.05</v>
+        <v>-38.41</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>21.8</v>
+        <v>24</v>
       </c>
       <c r="B126" t="n">
-        <v>24.3</v>
+        <v>4.4</v>
       </c>
       <c r="C126" t="n">
-        <v>-22.37</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>21.3</v>
+        <v>37.4</v>
       </c>
       <c r="B127" t="n">
-        <v>4.5</v>
+        <v>9.4</v>
       </c>
       <c r="C127" t="n">
-        <v>12.08</v>
+        <v>30.07</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>29.7</v>
+        <v>31.1</v>
       </c>
       <c r="B128" t="n">
-        <v>18</v>
+        <v>4.8</v>
       </c>
       <c r="C128" t="n">
-        <v>1.97</v>
+        <v>27.81</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>36.9</v>
+        <v>31.3</v>
       </c>
       <c r="B129" t="n">
-        <v>26.2</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.7</v>
+        <v>34.91</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>30.3</v>
+        <v>22.7</v>
       </c>
       <c r="B130" t="n">
-        <v>25.6</v>
+        <v>10.9</v>
       </c>
       <c r="C130" t="n">
-        <v>-10.58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>39.1</v>
+        <v>8.5</v>
       </c>
       <c r="B131" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="C131" t="n">
-        <v>39.84</v>
+        <v>-12.54</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>18.9</v>
+        <v>6.1</v>
       </c>
       <c r="B132" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="C132" t="n">
-        <v>5.43</v>
+        <v>-12.6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>36.8</v>
+        <v>32.1</v>
       </c>
       <c r="B133" t="n">
-        <v>10.3</v>
+        <v>16</v>
       </c>
       <c r="C133" t="n">
-        <v>27.47</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>30.2</v>
+        <v>19.5</v>
       </c>
       <c r="B134" t="n">
-        <v>8.6</v>
+        <v>13.3</v>
       </c>
       <c r="C134" t="n">
-        <v>19.55</v>
+        <v>-6.58</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>18.9</v>
+        <v>8.5</v>
       </c>
       <c r="B135" t="n">
-        <v>17.3</v>
+        <v>6.3</v>
       </c>
       <c r="C135" t="n">
-        <v>-14.71</v>
+        <v>-12.36</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>7.8</v>
+        <v>15.8</v>
       </c>
       <c r="B136" t="n">
-        <v>3.3</v>
+        <v>10.9</v>
       </c>
       <c r="C136" t="n">
-        <v>-8.18</v>
+        <v>-8.449999999999999</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>27.4</v>
+        <v>5.4</v>
       </c>
       <c r="B137" t="n">
-        <v>21.7</v>
+        <v>15.9</v>
       </c>
       <c r="C137" t="n">
-        <v>-8.44</v>
+        <v>-34.61</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>34.8</v>
+        <v>7.4</v>
       </c>
       <c r="B138" t="n">
-        <v>11.7</v>
+        <v>2.1</v>
       </c>
       <c r="C138" t="n">
-        <v>21.66</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>31.2</v>
+        <v>39.4</v>
       </c>
       <c r="B139" t="n">
-        <v>21.5</v>
+        <v>1.4</v>
       </c>
       <c r="C139" t="n">
-        <v>-1.78</v>
+        <v>47.64</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>34</v>
+        <v>30.1</v>
       </c>
       <c r="B140" t="n">
-        <v>9.9</v>
+        <v>11.6</v>
       </c>
       <c r="C140" t="n">
-        <v>23.54</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>36.7</v>
+        <v>38.5</v>
       </c>
       <c r="B141" t="n">
-        <v>15.7</v>
+        <v>24.1</v>
       </c>
       <c r="C141" t="n">
-        <v>17.68</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>36.1</v>
+        <v>5.2</v>
       </c>
       <c r="B142" t="n">
-        <v>1.9</v>
+        <v>13.8</v>
       </c>
       <c r="C142" t="n">
-        <v>41.27</v>
+        <v>-31.2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5.1</v>
+        <v>13</v>
       </c>
       <c r="B143" t="n">
-        <v>20.5</v>
+        <v>23.2</v>
       </c>
       <c r="C143" t="n">
-        <v>-43.31</v>
+        <v>-35.01</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>19.6</v>
+        <v>37.3</v>
       </c>
       <c r="B144" t="n">
-        <v>29</v>
+        <v>4.5</v>
       </c>
       <c r="C144" t="n">
-        <v>-34.39</v>
+        <v>38.63</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>19.7</v>
+        <v>28.6</v>
       </c>
       <c r="B145" t="n">
-        <v>23.8</v>
+        <v>16</v>
       </c>
       <c r="C145" t="n">
-        <v>-24.96</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>28.7</v>
+        <v>33.1</v>
       </c>
       <c r="B146" t="n">
-        <v>12.4</v>
+        <v>7.9</v>
       </c>
       <c r="C146" t="n">
-        <v>10.29</v>
+        <v>25.61</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>20.7</v>
+        <v>30.8</v>
       </c>
       <c r="B147" t="n">
-        <v>29.9</v>
+        <v>19.6</v>
       </c>
       <c r="C147" t="n">
-        <v>-34.17</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>18.1</v>
+        <v>23.7</v>
       </c>
       <c r="B148" t="n">
-        <v>29</v>
+        <v>16.6</v>
       </c>
       <c r="C148" t="n">
-        <v>-36.88</v>
+        <v>-5.49</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>35</v>
+        <v>22.2</v>
       </c>
       <c r="B149" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C149" t="n">
-        <v>1.85</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>25.3</v>
+        <v>24.1</v>
       </c>
       <c r="B150" t="n">
-        <v>28.9</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>-24.76</v>
+        <v>22.97</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>18.7</v>
+        <v>32.1</v>
       </c>
       <c r="B151" t="n">
-        <v>15.8</v>
+        <v>21.7</v>
       </c>
       <c r="C151" t="n">
-        <v>-12.36</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>17.5</v>
+        <v>7.2</v>
       </c>
       <c r="B152" t="n">
-        <v>19.2</v>
+        <v>22.1</v>
       </c>
       <c r="C152" t="n">
-        <v>-20.41</v>
+        <v>-42.67</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>10.7</v>
+        <v>12.8</v>
       </c>
       <c r="B153" t="n">
-        <v>25.9</v>
+        <v>16.9</v>
       </c>
       <c r="C153" t="n">
-        <v>-43.64</v>
+        <v>-24.11</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>18.2</v>
+        <v>14.3</v>
       </c>
       <c r="B154" t="n">
-        <v>20.6</v>
+        <v>26.1</v>
       </c>
       <c r="C154" t="n">
-        <v>-21.75</v>
+        <v>-38.02</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>31.5</v>
+        <v>16.3</v>
       </c>
       <c r="B155" t="n">
-        <v>15</v>
+        <v>28.3</v>
       </c>
       <c r="C155" t="n">
-        <v>10.3</v>
+        <v>-38.62</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>7.3</v>
+        <v>30</v>
       </c>
       <c r="B156" t="n">
-        <v>24.5</v>
+        <v>12.9</v>
       </c>
       <c r="C156" t="n">
-        <v>-46.78</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>25.4</v>
+        <v>38.8</v>
       </c>
       <c r="B157" t="n">
-        <v>19.4</v>
+        <v>15.9</v>
       </c>
       <c r="C157" t="n">
-        <v>-7.66</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>22.5</v>
+        <v>20.4</v>
       </c>
       <c r="B158" t="n">
-        <v>27.7</v>
+        <v>15.4</v>
       </c>
       <c r="C158" t="n">
-        <v>-27.26</v>
+        <v>-8.83</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>16.2</v>
+        <v>26.5</v>
       </c>
       <c r="B159" t="n">
-        <v>25</v>
+        <v>13.3</v>
       </c>
       <c r="C159" t="n">
-        <v>-32.91</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>12.3</v>
+        <v>15.5</v>
       </c>
       <c r="B160" t="n">
-        <v>23.6</v>
+        <v>20.2</v>
       </c>
       <c r="C160" t="n">
-        <v>-36.88</v>
+        <v>-25.51</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>35.1</v>
+        <v>22.5</v>
       </c>
       <c r="B161" t="n">
-        <v>23.5</v>
+        <v>19.3</v>
       </c>
       <c r="C161" t="n">
-        <v>1.13</v>
+        <v>-12.3</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>18.8</v>
+        <v>31.4</v>
       </c>
       <c r="B162" t="n">
-        <v>23.7</v>
+        <v>4.7</v>
       </c>
       <c r="C162" t="n">
-        <v>-26.28</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>9.199999999999999</v>
+        <v>38.1</v>
       </c>
       <c r="B163" t="n">
-        <v>22.4</v>
+        <v>17.3</v>
       </c>
       <c r="C163" t="n">
-        <v>-39.89</v>
+        <v>17.15</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>27.4</v>
+        <v>28.2</v>
       </c>
       <c r="B164" t="n">
-        <v>21.9</v>
+        <v>4.3</v>
       </c>
       <c r="C164" t="n">
-        <v>-8.800000000000001</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>39.1</v>
+        <v>18.1</v>
       </c>
       <c r="B165" t="n">
-        <v>29.8</v>
+        <v>11.7</v>
       </c>
       <c r="C165" t="n">
-        <v>-3.46</v>
+        <v>-6.05</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>12.2</v>
+        <v>29.8</v>
       </c>
       <c r="B166" t="n">
-        <v>19.9</v>
+        <v>25.9</v>
       </c>
       <c r="C166" t="n">
-        <v>-30.46</v>
+        <v>-11.94</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>20.8</v>
+        <v>36.6</v>
       </c>
       <c r="B167" t="n">
-        <v>16.2</v>
+        <v>8.6</v>
       </c>
       <c r="C167" t="n">
-        <v>-9.59</v>
+        <v>30.17</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>11.9</v>
+        <v>7.4</v>
       </c>
       <c r="B168" t="n">
-        <v>12</v>
+        <v>7.7</v>
       </c>
       <c r="C168" t="n">
-        <v>-16.88</v>
+        <v>-16.68</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>32.9</v>
+        <v>37.9</v>
       </c>
       <c r="B169" t="n">
-        <v>11.2</v>
+        <v>14.1</v>
       </c>
       <c r="C169" t="n">
-        <v>19.39</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>16.6</v>
+        <v>32.5</v>
       </c>
       <c r="B170" t="n">
-        <v>3</v>
+        <v>12.2</v>
       </c>
       <c r="C170" t="n">
-        <v>6.96</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>20</v>
+        <v>34.9</v>
       </c>
       <c r="B171" t="n">
-        <v>5.6</v>
+        <v>11.4</v>
       </c>
       <c r="C171" t="n">
-        <v>7.97</v>
+        <v>22.36</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>32.9</v>
+        <v>39.5</v>
       </c>
       <c r="B172" t="n">
-        <v>24.8</v>
+        <v>16.2</v>
       </c>
       <c r="C172" t="n">
-        <v>-4.84</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>9.300000000000001</v>
+        <v>14.8</v>
       </c>
       <c r="B173" t="n">
-        <v>23.1</v>
+        <v>23.8</v>
       </c>
       <c r="C173" t="n">
-        <v>-40.97</v>
+        <v>-33.09</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="B174" t="n">
-        <v>0.2</v>
+        <v>5.2</v>
       </c>
       <c r="C174" t="n">
-        <v>25.89</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>21.1</v>
+        <v>8</v>
       </c>
       <c r="B175" t="n">
-        <v>15.3</v>
+        <v>29.6</v>
       </c>
       <c r="C175" t="n">
-        <v>-7.49</v>
+        <v>-54.71</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>32.9</v>
+        <v>36</v>
       </c>
       <c r="B176" t="n">
-        <v>9.9</v>
+        <v>27.5</v>
       </c>
       <c r="C176" t="n">
-        <v>21.71</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>5.5</v>
+        <v>39.1</v>
       </c>
       <c r="B177" t="n">
-        <v>7.8</v>
+        <v>19.9</v>
       </c>
       <c r="C177" t="n">
-        <v>-20.01</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>25.3</v>
+        <v>5.3</v>
       </c>
       <c r="B178" t="n">
-        <v>4.6</v>
+        <v>9.9</v>
       </c>
       <c r="C178" t="n">
-        <v>18.54</v>
+        <v>-24.09</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>17.6</v>
+        <v>26.5</v>
       </c>
       <c r="B179" t="n">
-        <v>6.9</v>
+        <v>26.1</v>
       </c>
       <c r="C179" t="n">
-        <v>1.67</v>
+        <v>-17.77</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>14.4</v>
+        <v>5.3</v>
       </c>
       <c r="B180" t="n">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="C180" t="n">
-        <v>-5.6</v>
+        <v>-13.93</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>18.8</v>
+        <v>6</v>
       </c>
       <c r="B181" t="n">
-        <v>29.8</v>
+        <v>10.6</v>
       </c>
       <c r="C181" t="n">
-        <v>-37.14</v>
+        <v>-24.17</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>7.7</v>
+        <v>30.7</v>
       </c>
       <c r="B182" t="n">
-        <v>26.3</v>
+        <v>6</v>
       </c>
       <c r="C182" t="n">
-        <v>-49.33</v>
+        <v>25.01</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>37.2</v>
+        <v>38.1</v>
       </c>
       <c r="B183" t="n">
-        <v>19.3</v>
+        <v>24.7</v>
       </c>
       <c r="C183" t="n">
-        <v>12.1</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>24.9</v>
+        <v>7.8</v>
       </c>
       <c r="B184" t="n">
-        <v>15.5</v>
+        <v>4.8</v>
       </c>
       <c r="C184" t="n">
-        <v>-1.54</v>
+        <v>-10.85</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>17.4</v>
+        <v>26.6</v>
       </c>
       <c r="B185" t="n">
-        <v>20.4</v>
+        <v>7.8</v>
       </c>
       <c r="C185" t="n">
-        <v>-22.72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>9.6</v>
+        <v>17.5</v>
       </c>
       <c r="B186" t="n">
-        <v>20.7</v>
+        <v>19.4</v>
       </c>
       <c r="C186" t="n">
-        <v>-36.2</v>
+        <v>-20.77</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>39.9</v>
+        <v>5.7</v>
       </c>
       <c r="B187" t="n">
-        <v>24.2</v>
+        <v>11.7</v>
       </c>
       <c r="C187" t="n">
-        <v>7.85</v>
+        <v>-26.63</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>18.2</v>
+        <v>33.2</v>
       </c>
       <c r="B188" t="n">
-        <v>18.1</v>
+        <v>29.7</v>
       </c>
       <c r="C188" t="n">
-        <v>-17.29</v>
+        <v>-13.07</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>15.1</v>
+        <v>34.6</v>
       </c>
       <c r="B189" t="n">
-        <v>18.1</v>
+        <v>27.3</v>
       </c>
       <c r="C189" t="n">
-        <v>-22.44</v>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>8.6</v>
+        <v>21.5</v>
       </c>
       <c r="B190" t="n">
-        <v>23.6</v>
+        <v>11.5</v>
       </c>
       <c r="C190" t="n">
-        <v>-43.02</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>17.1</v>
+        <v>29.8</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>13.5</v>
       </c>
       <c r="C191" t="n">
-        <v>11.35</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>29.2</v>
+        <v>12.9</v>
       </c>
       <c r="B192" t="n">
-        <v>16</v>
+        <v>5.4</v>
       </c>
       <c r="C192" t="n">
-        <v>4.7</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B193" t="n">
-        <v>15.2</v>
+        <v>28.5</v>
       </c>
       <c r="C193" t="n">
-        <v>0.82</v>
+        <v>-4.63</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>7.7</v>
+        <v>12</v>
       </c>
       <c r="B194" t="n">
-        <v>22</v>
+        <v>4.2</v>
       </c>
       <c r="C194" t="n">
-        <v>-41.66</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>26.6</v>
+        <v>35.9</v>
       </c>
       <c r="B195" t="n">
-        <v>18.1</v>
+        <v>28.7</v>
       </c>
       <c r="C195" t="n">
-        <v>-3.35</v>
+        <v>-6.81</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>7.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="B196" t="n">
-        <v>24.9</v>
+        <v>1.7</v>
       </c>
       <c r="C196" t="n">
-        <v>-47</v>
+        <v>-3.83</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>24.4</v>
+        <v>30.1</v>
       </c>
       <c r="B197" t="n">
-        <v>3.2</v>
+        <v>29.9</v>
       </c>
       <c r="C197" t="n">
-        <v>19.54</v>
+        <v>-18.57</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>38.5</v>
+        <v>20.7</v>
       </c>
       <c r="B198" t="n">
-        <v>6.4</v>
+        <v>15.2</v>
       </c>
       <c r="C198" t="n">
-        <v>37.24</v>
+        <v>-7.98</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>25.5</v>
+        <v>9.4</v>
       </c>
       <c r="B199" t="n">
-        <v>17.5</v>
+        <v>14.9</v>
       </c>
       <c r="C199" t="n">
-        <v>-4.11</v>
+        <v>-26.19</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>26.4</v>
+        <v>38.7</v>
       </c>
       <c r="B200" t="n">
-        <v>12.7</v>
+        <v>17.9</v>
       </c>
       <c r="C200" t="n">
-        <v>5.94</v>
+        <v>17.08</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>7.8</v>
+        <v>12.1</v>
       </c>
       <c r="B201" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>-35.08</v>
+        <v>4.84</v>
       </c>
     </row>
   </sheetData>

--- a/Aufgabe_5/prognose_ergebnisse.xlsx
+++ b/Aufgabe_5/prognose_ergebnisse.xlsx
@@ -452,2202 +452,2202 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28.6</v>
+        <v>38.6</v>
       </c>
       <c r="B2" t="n">
-        <v>18.2</v>
+        <v>29.4</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.21</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>28.2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>25.9</v>
+        <v>20.7</v>
       </c>
       <c r="C3" t="n">
-        <v>-14.6</v>
+        <v>-42.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.9</v>
+        <v>28.6</v>
       </c>
       <c r="B4" t="n">
-        <v>19.1</v>
+        <v>15.8</v>
       </c>
       <c r="C4" t="n">
-        <v>-39.48</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27.8</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>9.4</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>14.14</v>
+        <v>-20.64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36.1</v>
+        <v>5.9</v>
       </c>
       <c r="B6" t="n">
-        <v>16.4</v>
+        <v>5.6</v>
       </c>
       <c r="C6" t="n">
-        <v>15.44</v>
+        <v>-15.43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15.3</v>
+        <v>25.9</v>
       </c>
       <c r="B7" t="n">
-        <v>23.9</v>
+        <v>17.4</v>
       </c>
       <c r="C7" t="n">
-        <v>-32.44</v>
+        <v>-3.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26</v>
+        <v>7.7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.9</v>
+        <v>27.4</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.43</v>
+        <v>-51.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>37.2</v>
+        <v>15.1</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6</v>
+        <v>26.6</v>
       </c>
       <c r="C9" t="n">
-        <v>45.42</v>
+        <v>-37.58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35.5</v>
+        <v>11.4</v>
       </c>
       <c r="B10" t="n">
-        <v>14.4</v>
+        <v>16.5</v>
       </c>
       <c r="C10" t="n">
-        <v>18.01</v>
+        <v>-25.72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21.7</v>
+        <v>35.6</v>
       </c>
       <c r="B11" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="C11" t="n">
-        <v>18.81</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>26.7</v>
+        <v>24.5</v>
       </c>
       <c r="B12" t="n">
-        <v>24.6</v>
+        <v>4.3</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.77</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>16.4</v>
+        <v>31.7</v>
       </c>
       <c r="B13" t="n">
-        <v>23</v>
+        <v>6.4</v>
       </c>
       <c r="C13" t="n">
-        <v>-29.01</v>
+        <v>25.96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B14" t="n">
-        <v>7.4</v>
+        <v>13.4</v>
       </c>
       <c r="C14" t="n">
-        <v>-16.81</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="B15" t="n">
-        <v>22.4</v>
+        <v>2.3</v>
       </c>
       <c r="C15" t="n">
-        <v>-42.05</v>
+        <v>-8.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="B16" t="n">
-        <v>1.9</v>
+        <v>14.1</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.37</v>
+        <v>-20.78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>23.8</v>
+        <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>22.7</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>-16.2</v>
+        <v>-13.39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>13.8</v>
       </c>
       <c r="B18" t="n">
-        <v>20.4</v>
+        <v>2.2</v>
       </c>
       <c r="C18" t="n">
-        <v>-39.97</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14.7</v>
+        <v>10.7</v>
       </c>
       <c r="B19" t="n">
-        <v>1.2</v>
+        <v>11.7</v>
       </c>
       <c r="C19" t="n">
-        <v>7.01</v>
+        <v>-18.33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>16.9</v>
+        <v>24.7</v>
       </c>
       <c r="B20" t="n">
-        <v>1.7</v>
+        <v>19.2</v>
       </c>
       <c r="C20" t="n">
-        <v>9.77</v>
+        <v>-8.470000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>34.8</v>
+        <v>5.8</v>
       </c>
       <c r="B21" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="C21" t="n">
-        <v>38.58</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21.1</v>
+        <v>36.6</v>
       </c>
       <c r="B22" t="n">
-        <v>26.5</v>
+        <v>4.3</v>
       </c>
       <c r="C22" t="n">
-        <v>-27.45</v>
+        <v>37.83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15.3</v>
+        <v>38.5</v>
       </c>
       <c r="B23" t="n">
-        <v>24.8</v>
+        <v>4.6</v>
       </c>
       <c r="C23" t="n">
-        <v>-34.04</v>
+        <v>40.45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11.9</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>1.5</v>
+        <v>19.7</v>
       </c>
       <c r="C24" t="n">
-        <v>1.83</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>21.7</v>
+        <v>6.2</v>
       </c>
       <c r="B25" t="n">
-        <v>2.8</v>
+        <v>10.3</v>
       </c>
       <c r="C25" t="n">
-        <v>15.78</v>
+        <v>-23.31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>39.3</v>
+        <v>22.4</v>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>17.1</v>
       </c>
       <c r="C26" t="n">
-        <v>8.99</v>
+        <v>-8.539999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>31.4</v>
+        <v>36.6</v>
       </c>
       <c r="B27" t="n">
-        <v>14.2</v>
+        <v>10.2</v>
       </c>
       <c r="C27" t="n">
-        <v>11.56</v>
+        <v>27.32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.1</v>
+        <v>27.3</v>
       </c>
       <c r="B28" t="n">
-        <v>23.7</v>
+        <v>22</v>
       </c>
       <c r="C28" t="n">
-        <v>-47.35</v>
+        <v>-9.140000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>36.3</v>
+        <v>31.1</v>
       </c>
       <c r="B29" t="n">
-        <v>18</v>
+        <v>25.9</v>
       </c>
       <c r="C29" t="n">
-        <v>12.92</v>
+        <v>-9.789999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>34.9</v>
+        <v>8.4</v>
       </c>
       <c r="B30" t="n">
-        <v>22.1</v>
+        <v>10.1</v>
       </c>
       <c r="C30" t="n">
-        <v>3.29</v>
+        <v>-19.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>38.7</v>
+        <v>39.1</v>
       </c>
       <c r="B31" t="n">
-        <v>12.4</v>
+        <v>24.6</v>
       </c>
       <c r="C31" t="n">
-        <v>26.88</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>17.9</v>
+        <v>17.6</v>
       </c>
       <c r="B32" t="n">
-        <v>24.6</v>
+        <v>1.1</v>
       </c>
       <c r="C32" t="n">
-        <v>-29.37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>28.9</v>
+        <v>18.7</v>
       </c>
       <c r="B33" t="n">
-        <v>19.5</v>
+        <v>27.3</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.03</v>
+        <v>-32.86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>27.5</v>
+        <v>39.7</v>
       </c>
       <c r="B34" t="n">
-        <v>9.6</v>
+        <v>5.3</v>
       </c>
       <c r="C34" t="n">
-        <v>13.28</v>
+        <v>41.19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11.2</v>
+        <v>17.7</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5</v>
+        <v>28</v>
       </c>
       <c r="C35" t="n">
-        <v>2.45</v>
+        <v>-35.76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.6</v>
+        <v>30.7</v>
       </c>
       <c r="B36" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="C36" t="n">
-        <v>-14.8</v>
+        <v>33.74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>29.1</v>
+        <v>34.7</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="C37" t="n">
-        <v>33.05</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>27.4</v>
+        <v>26.5</v>
       </c>
       <c r="B38" t="n">
-        <v>6.3</v>
+        <v>28.2</v>
       </c>
       <c r="C38" t="n">
-        <v>19</v>
+        <v>-21.52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>21.9</v>
+        <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>19.1</v>
+        <v>27.5</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.93</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>23.8</v>
+        <v>38.7</v>
       </c>
       <c r="B40" t="n">
-        <v>29</v>
+        <v>9.9</v>
       </c>
       <c r="C40" t="n">
-        <v>-27.42</v>
+        <v>31.33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>26.7</v>
+        <v>17.8</v>
       </c>
       <c r="B41" t="n">
-        <v>5.9</v>
+        <v>28</v>
       </c>
       <c r="C41" t="n">
-        <v>18.55</v>
+        <v>-35.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13.9</v>
+        <v>39</v>
       </c>
       <c r="B42" t="n">
-        <v>22.6</v>
+        <v>17.2</v>
       </c>
       <c r="C42" t="n">
-        <v>-32.45</v>
+        <v>18.82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17.8</v>
+        <v>21.8</v>
       </c>
       <c r="B43" t="n">
-        <v>19.5</v>
+        <v>16.2</v>
       </c>
       <c r="C43" t="n">
-        <v>-20.45</v>
+        <v>-7.93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19.1</v>
+        <v>37.3</v>
       </c>
       <c r="B44" t="n">
-        <v>19.9</v>
+        <v>9.9</v>
       </c>
       <c r="C44" t="n">
-        <v>-19.01</v>
+        <v>29.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>28.4</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n">
-        <v>23.7</v>
+        <v>19.5</v>
       </c>
       <c r="C45" t="n">
-        <v>-10.35</v>
+        <v>-20.12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>26</v>
+        <v>5.7</v>
       </c>
       <c r="B46" t="n">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="C46" t="n">
-        <v>2.06</v>
+        <v>-19.32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>13.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="B47" t="n">
-        <v>12.1</v>
+        <v>3.9</v>
       </c>
       <c r="C47" t="n">
-        <v>-13.74</v>
+        <v>-6.76</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>18.4</v>
+        <v>38.2</v>
       </c>
       <c r="B48" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="C48" t="n">
-        <v>7.09</v>
+        <v>45.29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>13.4</v>
+        <v>6.8</v>
       </c>
       <c r="B49" t="n">
-        <v>7.4</v>
+        <v>25.9</v>
       </c>
       <c r="C49" t="n">
-        <v>-6.19</v>
+        <v>-50.11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>37.5</v>
+        <v>7.8</v>
       </c>
       <c r="B50" t="n">
-        <v>27.4</v>
+        <v>20.5</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.84</v>
+        <v>-38.83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>16.6</v>
+        <v>33.9</v>
       </c>
       <c r="B51" t="n">
-        <v>24.4</v>
+        <v>15.4</v>
       </c>
       <c r="C51" t="n">
-        <v>-31.17</v>
+        <v>13.57</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>13.4</v>
+        <v>35.6</v>
       </c>
       <c r="B52" t="n">
-        <v>15.3</v>
+        <v>12.2</v>
       </c>
       <c r="C52" t="n">
-        <v>-20.27</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>11</v>
+        <v>37.5</v>
       </c>
       <c r="B53" t="n">
-        <v>7.5</v>
+        <v>18</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.35</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>21.6</v>
+        <v>7.5</v>
       </c>
       <c r="B54" t="n">
-        <v>15.4</v>
+        <v>11.7</v>
       </c>
       <c r="C54" t="n">
-        <v>-6.84</v>
+        <v>-23.64</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>37.5</v>
+        <v>21.3</v>
       </c>
       <c r="B55" t="n">
-        <v>25.2</v>
+        <v>15.7</v>
       </c>
       <c r="C55" t="n">
-        <v>2.08</v>
+        <v>-7.87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>34.3</v>
+        <v>25.4</v>
       </c>
       <c r="B56" t="n">
-        <v>25.9</v>
+        <v>6.6</v>
       </c>
       <c r="C56" t="n">
-        <v>-4.48</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>28.2</v>
+        <v>13.3</v>
       </c>
       <c r="B57" t="n">
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="C57" t="n">
-        <v>3.04</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>27.9</v>
+        <v>18</v>
       </c>
       <c r="B58" t="n">
-        <v>16.9</v>
+        <v>12.5</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9399999999999999</v>
+        <v>-7.65</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>29.4</v>
+        <v>11.8</v>
       </c>
       <c r="B59" t="n">
-        <v>5.5</v>
+        <v>28.7</v>
       </c>
       <c r="C59" t="n">
-        <v>23.74</v>
+        <v>-46.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>16.6</v>
+        <v>29.1</v>
       </c>
       <c r="B60" t="n">
-        <v>25.8</v>
+        <v>2.9</v>
       </c>
       <c r="C60" t="n">
-        <v>-33.67</v>
+        <v>27.88</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>35.8</v>
+        <v>7.2</v>
       </c>
       <c r="B61" t="n">
-        <v>29.6</v>
+        <v>19.1</v>
       </c>
       <c r="C61" t="n">
-        <v>-8.58</v>
+        <v>-37.33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>20.5</v>
+        <v>33.2</v>
       </c>
       <c r="B62" t="n">
-        <v>10.1</v>
+        <v>5.4</v>
       </c>
       <c r="C62" t="n">
-        <v>0.78</v>
+        <v>30.23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>37.8</v>
+        <v>13.7</v>
       </c>
       <c r="B63" t="n">
-        <v>1.9</v>
+        <v>10.1</v>
       </c>
       <c r="C63" t="n">
-        <v>44.1</v>
+        <v>-10.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>14.1</v>
+        <v>9.4</v>
       </c>
       <c r="B64" t="n">
-        <v>27</v>
+        <v>15.8</v>
       </c>
       <c r="C64" t="n">
-        <v>-39.95</v>
+        <v>-27.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>12.9</v>
+        <v>22</v>
       </c>
       <c r="B65" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="C65" t="n">
-        <v>-4.7</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>29.9</v>
+        <v>19.1</v>
       </c>
       <c r="B66" t="n">
-        <v>6</v>
+        <v>16.8</v>
       </c>
       <c r="C66" t="n">
-        <v>23.68</v>
+        <v>-13.48</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>11.4</v>
+        <v>6.9</v>
       </c>
       <c r="B67" t="n">
-        <v>14.6</v>
+        <v>21.9</v>
       </c>
       <c r="C67" t="n">
-        <v>-22.34</v>
+        <v>-42.81</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>31.4</v>
+        <v>34.6</v>
       </c>
       <c r="B68" t="n">
-        <v>4.5</v>
+        <v>16.2</v>
       </c>
       <c r="C68" t="n">
-        <v>28.84</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5.4</v>
+        <v>23.8</v>
       </c>
       <c r="B69" t="n">
-        <v>14.1</v>
+        <v>19.2</v>
       </c>
       <c r="C69" t="n">
-        <v>-31.4</v>
+        <v>-9.960000000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>13.7</v>
+        <v>18.5</v>
       </c>
       <c r="B70" t="n">
-        <v>8.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.3</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>27.9</v>
+        <v>28.5</v>
       </c>
       <c r="B71" t="n">
-        <v>3.7</v>
+        <v>14.5</v>
       </c>
       <c r="C71" t="n">
-        <v>24.46</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>39</v>
+        <v>23.9</v>
       </c>
       <c r="B72" t="n">
-        <v>23.8</v>
+        <v>20.3</v>
       </c>
       <c r="C72" t="n">
-        <v>7.06</v>
+        <v>-11.75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>17.5</v>
+        <v>38</v>
       </c>
       <c r="B73" t="n">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="C73" t="n">
-        <v>1.68</v>
+        <v>40.15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>19.3</v>
+        <v>15.7</v>
       </c>
       <c r="C74" t="n">
-        <v>-35.36</v>
+        <v>-29.61</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>37.3</v>
+        <v>21.1</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4</v>
+        <v>14.8</v>
       </c>
       <c r="C75" t="n">
-        <v>45.94</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>35.9</v>
+        <v>16.6</v>
       </c>
       <c r="B76" t="n">
-        <v>26.2</v>
+        <v>9.5</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.36</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>14.7</v>
+        <v>5.8</v>
       </c>
       <c r="B77" t="n">
         <v>11.2</v>
       </c>
       <c r="C77" t="n">
-        <v>-10.81</v>
+        <v>-25.57</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>8.4</v>
+        <v>31.4</v>
       </c>
       <c r="B78" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="C78" t="n">
-        <v>-41.57</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5.6</v>
+        <v>34.8</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>-6.84</v>
+        <v>25.04</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>7.6</v>
+        <v>27.5</v>
       </c>
       <c r="B80" t="n">
-        <v>11.7</v>
+        <v>25.9</v>
       </c>
       <c r="C80" t="n">
-        <v>-23.48</v>
+        <v>-15.76</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>40</v>
+        <v>15.3</v>
       </c>
       <c r="B81" t="n">
-        <v>21.1</v>
+        <v>15.2</v>
       </c>
       <c r="C81" t="n">
-        <v>13.53</v>
+        <v>-16.94</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>13.7</v>
+        <v>26.8</v>
       </c>
       <c r="B82" t="n">
-        <v>8</v>
+        <v>28.4</v>
       </c>
       <c r="C82" t="n">
-        <v>-6.76</v>
+        <v>-21.38</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>31.7</v>
+        <v>22.6</v>
       </c>
       <c r="B83" t="n">
-        <v>5.9</v>
+        <v>22.5</v>
       </c>
       <c r="C83" t="n">
-        <v>26.85</v>
+        <v>-17.83</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>28.8</v>
+        <v>7</v>
       </c>
       <c r="B84" t="n">
-        <v>21.6</v>
+        <v>6.5</v>
       </c>
       <c r="C84" t="n">
-        <v>-5.94</v>
+        <v>-15.21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>20.6</v>
+        <v>25.9</v>
       </c>
       <c r="B85" t="n">
-        <v>13.5</v>
+        <v>28.5</v>
       </c>
       <c r="C85" t="n">
-        <v>-5.11</v>
+        <v>-23.05</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>32.7</v>
+        <v>22.8</v>
       </c>
       <c r="B86" t="n">
-        <v>10.3</v>
+        <v>18</v>
       </c>
       <c r="C86" t="n">
-        <v>20.67</v>
+        <v>-9.48</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="B87" t="n">
-        <v>3.7</v>
+        <v>16.1</v>
       </c>
       <c r="C87" t="n">
-        <v>2.89</v>
+        <v>-19.54</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>27.1</v>
+        <v>13.8</v>
       </c>
       <c r="B88" t="n">
-        <v>5.8</v>
+        <v>20.8</v>
       </c>
       <c r="C88" t="n">
-        <v>19.39</v>
+        <v>-29.4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>9.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="B89" t="n">
-        <v>27.5</v>
+        <v>29.2</v>
       </c>
       <c r="C89" t="n">
-        <v>-48.15</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>31.6</v>
+        <v>6.6</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>26.3</v>
       </c>
       <c r="C90" t="n">
-        <v>31.85</v>
+        <v>-51.15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>37.4</v>
+        <v>18.7</v>
       </c>
       <c r="B91" t="n">
-        <v>4</v>
+        <v>25.3</v>
       </c>
       <c r="C91" t="n">
-        <v>39.69</v>
+        <v>-29.29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>31.4</v>
+        <v>14.3</v>
       </c>
       <c r="B92" t="n">
-        <v>15.2</v>
+        <v>6</v>
       </c>
       <c r="C92" t="n">
-        <v>9.779999999999999</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>22.8</v>
+        <v>14.7</v>
       </c>
       <c r="B93" t="n">
-        <v>8.6</v>
+        <v>13.3</v>
       </c>
       <c r="C93" t="n">
-        <v>7.27</v>
+        <v>-14.55</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>29</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="B94" t="n">
-        <v>3.4</v>
+        <v>27</v>
       </c>
       <c r="C94" t="n">
-        <v>26.82</v>
+        <v>-47.09</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>26.2</v>
+        <v>7.3</v>
       </c>
       <c r="B95" t="n">
-        <v>20.1</v>
+        <v>18.7</v>
       </c>
       <c r="C95" t="n">
-        <v>-7.58</v>
+        <v>-36.45</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>9.699999999999999</v>
+        <v>13.1</v>
       </c>
       <c r="B96" t="n">
-        <v>13.3</v>
+        <v>29.3</v>
       </c>
       <c r="C96" t="n">
-        <v>-22.84</v>
+        <v>-45.71</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>21.3</v>
+        <v>11.9</v>
       </c>
       <c r="B97" t="n">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="C97" t="n">
-        <v>5.85</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>29.2</v>
+        <v>18.3</v>
       </c>
       <c r="B98" t="n">
-        <v>19.6</v>
+        <v>11.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.71</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>10.4</v>
+        <v>7.5</v>
       </c>
       <c r="B99" t="n">
-        <v>8.300000000000001</v>
+        <v>21.3</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.77</v>
+        <v>-40.75</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>24.2</v>
+        <v>29</v>
       </c>
       <c r="B100" t="n">
-        <v>21.9</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>-14.11</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>30.8</v>
+        <v>31.7</v>
       </c>
       <c r="B101" t="n">
-        <v>2.4</v>
+        <v>19.8</v>
       </c>
       <c r="C101" t="n">
-        <v>31.59</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9.4</v>
+        <v>18.2</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5</v>
+        <v>27.4</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.53</v>
+        <v>-33.86</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>12.5</v>
+        <v>32.3</v>
       </c>
       <c r="B103" t="n">
-        <v>17.4</v>
+        <v>19.7</v>
       </c>
       <c r="C103" t="n">
-        <v>-25.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>22.1</v>
+        <v>36.2</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="C104" t="n">
-        <v>16.08</v>
+        <v>42.87</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>38.4</v>
+        <v>6.7</v>
       </c>
       <c r="B105" t="n">
-        <v>14.3</v>
+        <v>23.3</v>
       </c>
       <c r="C105" t="n">
-        <v>23</v>
+        <v>-45.64</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>11.1</v>
+        <v>24.1</v>
       </c>
       <c r="B106" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C106" t="n">
-        <v>-39.59</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>12.9</v>
+        <v>36.1</v>
       </c>
       <c r="B107" t="n">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="n">
-        <v>-5.6</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>38.2</v>
+        <v>35.5</v>
       </c>
       <c r="B108" t="n">
-        <v>26.8</v>
+        <v>8.4</v>
       </c>
       <c r="C108" t="n">
-        <v>0.39</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="B109" t="n">
-        <v>25.9</v>
+        <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>-43.97</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>22.6</v>
+        <v>7.1</v>
       </c>
       <c r="B110" t="n">
-        <v>26</v>
+        <v>22.5</v>
       </c>
       <c r="C110" t="n">
-        <v>-24.07</v>
+        <v>-43.55</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10.4</v>
+        <v>14.8</v>
       </c>
       <c r="B111" t="n">
-        <v>9.199999999999999</v>
+        <v>28.7</v>
       </c>
       <c r="C111" t="n">
-        <v>-14.38</v>
+        <v>-41.82</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>20.8</v>
+        <v>28.2</v>
       </c>
       <c r="B112" t="n">
-        <v>10.4</v>
+        <v>29.9</v>
       </c>
       <c r="C112" t="n">
-        <v>0.74</v>
+        <v>-21.73</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>29.7</v>
+        <v>13.6</v>
       </c>
       <c r="B113" t="n">
-        <v>11</v>
+        <v>19.1</v>
       </c>
       <c r="C113" t="n">
-        <v>14.44</v>
+        <v>-26.71</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>23.7</v>
+        <v>13.6</v>
       </c>
       <c r="B114" t="n">
-        <v>26.4</v>
+        <v>25.5</v>
       </c>
       <c r="C114" t="n">
-        <v>-22.96</v>
+        <v>-38.11</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>22.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="B115" t="n">
-        <v>24.1</v>
+        <v>8</v>
       </c>
       <c r="C115" t="n">
-        <v>-21.35</v>
+        <v>-15.72</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="B116" t="n">
         <v>21.8</v>
       </c>
-      <c r="B116" t="n">
-        <v>11.2</v>
-      </c>
       <c r="C116" t="n">
-        <v>0.98</v>
+        <v>-26.71</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>24.9</v>
+        <v>32.1</v>
       </c>
       <c r="B117" t="n">
-        <v>20.7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="n">
-        <v>-10.81</v>
+        <v>29.11</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>28.1</v>
+        <v>18.1</v>
       </c>
       <c r="B118" t="n">
-        <v>3.4</v>
+        <v>17.6</v>
       </c>
       <c r="C118" t="n">
-        <v>25.33</v>
+        <v>-16.57</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>16</v>
+        <v>32.5</v>
       </c>
       <c r="B119" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>-39.3</v>
+        <v>38.69</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>33.3</v>
+        <v>27.9</v>
       </c>
       <c r="B120" t="n">
-        <v>20.8</v>
+        <v>0.7</v>
       </c>
       <c r="C120" t="n">
-        <v>2.95</v>
+        <v>29.81</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>33.3</v>
+        <v>17.1</v>
       </c>
       <c r="B121" t="n">
-        <v>13.7</v>
+        <v>22.5</v>
       </c>
       <c r="C121" t="n">
-        <v>15.6</v>
+        <v>-26.96</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>23.7</v>
+        <v>28.9</v>
       </c>
       <c r="B122" t="n">
-        <v>21.6</v>
+        <v>13.2</v>
       </c>
       <c r="C122" t="n">
-        <v>-14.4</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>11.3</v>
+        <v>39</v>
       </c>
       <c r="B123" t="n">
-        <v>24.8</v>
+        <v>22.4</v>
       </c>
       <c r="C123" t="n">
-        <v>-40.68</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>10.9</v>
+        <v>34.4</v>
       </c>
       <c r="B124" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="C124" t="n">
-        <v>-38.31</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="B125" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="C125" t="n">
-        <v>-38.41</v>
+        <v>-51.57</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>24</v>
+        <v>38.5</v>
       </c>
       <c r="B126" t="n">
-        <v>4.4</v>
+        <v>0.3</v>
       </c>
       <c r="C126" t="n">
-        <v>16.74</v>
+        <v>48.11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>37.4</v>
+        <v>8.9</v>
       </c>
       <c r="B127" t="n">
-        <v>9.4</v>
+        <v>17.2</v>
       </c>
       <c r="C127" t="n">
-        <v>30.07</v>
+        <v>-31.12</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>31.1</v>
+        <v>25.9</v>
       </c>
       <c r="B128" t="n">
-        <v>4.8</v>
+        <v>28.4</v>
       </c>
       <c r="C128" t="n">
-        <v>27.81</v>
+        <v>-22.87</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>31.3</v>
+        <v>38.5</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>27.7</v>
       </c>
       <c r="C129" t="n">
-        <v>34.91</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>22.7</v>
+        <v>24</v>
       </c>
       <c r="B130" t="n">
-        <v>10.9</v>
+        <v>27</v>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>-23.53</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="B131" t="n">
-        <v>6.4</v>
+        <v>15.8</v>
       </c>
       <c r="C131" t="n">
-        <v>-12.54</v>
+        <v>-30.95</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>6.1</v>
+        <v>35.5</v>
       </c>
       <c r="B132" t="n">
-        <v>4.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>-12.6</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>32.1</v>
+        <v>20.2</v>
       </c>
       <c r="B133" t="n">
         <v>16</v>
       </c>
       <c r="C133" t="n">
-        <v>9.51</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>19.5</v>
+        <v>24.9</v>
       </c>
       <c r="B134" t="n">
-        <v>13.3</v>
+        <v>17.2</v>
       </c>
       <c r="C134" t="n">
-        <v>-6.58</v>
+        <v>-4.57</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>8.5</v>
+        <v>36.8</v>
       </c>
       <c r="B135" t="n">
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="C135" t="n">
-        <v>-12.36</v>
+        <v>42.44</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>15.8</v>
+        <v>25.2</v>
       </c>
       <c r="B136" t="n">
-        <v>10.9</v>
+        <v>12.8</v>
       </c>
       <c r="C136" t="n">
-        <v>-8.449999999999999</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5.4</v>
+        <v>19.6</v>
       </c>
       <c r="B137" t="n">
-        <v>15.9</v>
+        <v>4.1</v>
       </c>
       <c r="C137" t="n">
-        <v>-34.61</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>7.4</v>
+        <v>34.3</v>
       </c>
       <c r="B138" t="n">
-        <v>2.1</v>
+        <v>14.4</v>
       </c>
       <c r="C138" t="n">
-        <v>-6.7</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>39.4</v>
+        <v>15.5</v>
       </c>
       <c r="B139" t="n">
-        <v>1.4</v>
+        <v>14.2</v>
       </c>
       <c r="C139" t="n">
-        <v>47.64</v>
+        <v>-14.82</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>30.1</v>
+        <v>32.3</v>
       </c>
       <c r="B140" t="n">
-        <v>11.6</v>
+        <v>14.9</v>
       </c>
       <c r="C140" t="n">
-        <v>14.04</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>38.5</v>
+        <v>25.4</v>
       </c>
       <c r="B141" t="n">
-        <v>24.1</v>
+        <v>16.4</v>
       </c>
       <c r="C141" t="n">
-        <v>5.7</v>
+        <v>-2.32</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5.2</v>
+        <v>14.1</v>
       </c>
       <c r="B142" t="n">
-        <v>13.8</v>
+        <v>12.8</v>
       </c>
       <c r="C142" t="n">
-        <v>-31.2</v>
+        <v>-14.65</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>13</v>
+        <v>15.3</v>
       </c>
       <c r="B143" t="n">
-        <v>23.2</v>
+        <v>3.8</v>
       </c>
       <c r="C143" t="n">
-        <v>-35.01</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>37.3</v>
+        <v>28.4</v>
       </c>
       <c r="B144" t="n">
-        <v>4.5</v>
+        <v>15.1</v>
       </c>
       <c r="C144" t="n">
-        <v>38.63</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>28.6</v>
+        <v>33.8</v>
       </c>
       <c r="B145" t="n">
-        <v>16</v>
+        <v>7.3</v>
       </c>
       <c r="C145" t="n">
-        <v>3.71</v>
+        <v>27.84</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>33.1</v>
+        <v>7.7</v>
       </c>
       <c r="B146" t="n">
-        <v>7.9</v>
+        <v>27</v>
       </c>
       <c r="C146" t="n">
-        <v>25.61</v>
+        <v>-50.57</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>30.8</v>
+        <v>37.2</v>
       </c>
       <c r="B147" t="n">
-        <v>19.6</v>
+        <v>23.4</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9399999999999999</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>23.7</v>
+        <v>13.4</v>
       </c>
       <c r="B148" t="n">
-        <v>16.6</v>
+        <v>18.4</v>
       </c>
       <c r="C148" t="n">
-        <v>-5.49</v>
+        <v>-25.79</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>22.2</v>
+        <v>24.9</v>
       </c>
       <c r="B149" t="n">
-        <v>14</v>
+        <v>27.6</v>
       </c>
       <c r="C149" t="n">
-        <v>-3.35</v>
+        <v>-23.1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>22.6</v>
       </c>
       <c r="C150" t="n">
-        <v>22.97</v>
+        <v>-14.86</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>32.1</v>
+        <v>26.6</v>
       </c>
       <c r="B151" t="n">
-        <v>21.7</v>
+        <v>10.3</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.64</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>7.2</v>
+        <v>30.7</v>
       </c>
       <c r="B152" t="n">
-        <v>22.1</v>
+        <v>17.3</v>
       </c>
       <c r="C152" t="n">
-        <v>-42.67</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>12.8</v>
+        <v>6.5</v>
       </c>
       <c r="B153" t="n">
-        <v>16.9</v>
+        <v>17.4</v>
       </c>
       <c r="C153" t="n">
-        <v>-24.11</v>
+        <v>-35.46</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>14.3</v>
+        <v>29.5</v>
       </c>
       <c r="B154" t="n">
-        <v>26.1</v>
+        <v>16.1</v>
       </c>
       <c r="C154" t="n">
-        <v>-38.02</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>16.3</v>
+        <v>28.3</v>
       </c>
       <c r="B155" t="n">
-        <v>28.3</v>
+        <v>21.1</v>
       </c>
       <c r="C155" t="n">
-        <v>-38.62</v>
+        <v>-5.88</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>30</v>
+        <v>34.5</v>
       </c>
       <c r="B156" t="n">
-        <v>12.9</v>
+        <v>13.5</v>
       </c>
       <c r="C156" t="n">
-        <v>11.55</v>
+        <v>17.95</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>38.8</v>
+        <v>29.1</v>
       </c>
       <c r="B157" t="n">
-        <v>15.9</v>
+        <v>4.8</v>
       </c>
       <c r="C157" t="n">
-        <v>20.81</v>
+        <v>24.49</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>20.4</v>
+        <v>14</v>
       </c>
       <c r="B158" t="n">
-        <v>15.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>-8.83</v>
+        <v>-7.51</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="B159" t="n">
-        <v>13.3</v>
+        <v>2.1</v>
       </c>
       <c r="C159" t="n">
-        <v>5.03</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>15.5</v>
+        <v>9.6</v>
       </c>
       <c r="B160" t="n">
-        <v>20.2</v>
+        <v>26.6</v>
       </c>
       <c r="C160" t="n">
-        <v>-25.51</v>
+        <v>-46.71</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>22.5</v>
+        <v>16.6</v>
       </c>
       <c r="B161" t="n">
-        <v>19.3</v>
+        <v>23.7</v>
       </c>
       <c r="C161" t="n">
-        <v>-12.3</v>
+        <v>-29.93</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>31.4</v>
+        <v>24.7</v>
       </c>
       <c r="B162" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="C162" t="n">
-        <v>28.49</v>
+        <v>16.83</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>38.1</v>
+        <v>33.8</v>
       </c>
       <c r="B163" t="n">
-        <v>17.3</v>
+        <v>4.8</v>
       </c>
       <c r="C163" t="n">
-        <v>17.15</v>
+        <v>32.29</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>28.2</v>
+        <v>36.4</v>
       </c>
       <c r="B164" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="C164" t="n">
-        <v>23.89</v>
+        <v>42.49</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>18.1</v>
+        <v>34.4</v>
       </c>
       <c r="B165" t="n">
-        <v>11.7</v>
+        <v>10.6</v>
       </c>
       <c r="C165" t="n">
-        <v>-6.05</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>29.8</v>
+        <v>14.4</v>
       </c>
       <c r="B166" t="n">
-        <v>25.9</v>
+        <v>12.4</v>
       </c>
       <c r="C166" t="n">
-        <v>-11.94</v>
+        <v>-13.44</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>36.6</v>
+        <v>35.8</v>
       </c>
       <c r="B167" t="n">
-        <v>8.6</v>
+        <v>20.5</v>
       </c>
       <c r="C167" t="n">
-        <v>30.17</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>7.4</v>
+        <v>17.2</v>
       </c>
       <c r="B168" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="n">
-        <v>-16.68</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>37.9</v>
+        <v>28.3</v>
       </c>
       <c r="B169" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="C169" t="n">
-        <v>22.52</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>32.5</v>
+        <v>22.3</v>
       </c>
       <c r="B170" t="n">
-        <v>12.2</v>
+        <v>17.1</v>
       </c>
       <c r="C170" t="n">
-        <v>16.95</v>
+        <v>-8.710000000000001</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>34.9</v>
+        <v>34.2</v>
       </c>
       <c r="B171" t="n">
-        <v>11.4</v>
+        <v>14</v>
       </c>
       <c r="C171" t="n">
-        <v>22.36</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>39.5</v>
+        <v>20.4</v>
       </c>
       <c r="B172" t="n">
-        <v>16.2</v>
+        <v>30</v>
       </c>
       <c r="C172" t="n">
-        <v>21.44</v>
+        <v>-34.85</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>14.8</v>
+        <v>28.9</v>
       </c>
       <c r="B173" t="n">
-        <v>23.8</v>
+        <v>3.3</v>
       </c>
       <c r="C173" t="n">
-        <v>-33.09</v>
+        <v>26.83</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>25.4</v>
+        <v>30.4</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2</v>
+        <v>16.4</v>
       </c>
       <c r="C174" t="n">
-        <v>17.64</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>8</v>
+        <v>17.8</v>
       </c>
       <c r="B175" t="n">
-        <v>29.6</v>
+        <v>16.5</v>
       </c>
       <c r="C175" t="n">
-        <v>-54.71</v>
+        <v>-15.11</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>36</v>
+        <v>25.7</v>
       </c>
       <c r="B176" t="n">
-        <v>27.5</v>
+        <v>19.3</v>
       </c>
       <c r="C176" t="n">
-        <v>-4.51</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>39.1</v>
+        <v>35.5</v>
       </c>
       <c r="B177" t="n">
-        <v>19.9</v>
+        <v>4</v>
       </c>
       <c r="C177" t="n">
-        <v>14.18</v>
+        <v>36.54</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>5.3</v>
+        <v>19.2</v>
       </c>
       <c r="B178" t="n">
-        <v>9.9</v>
+        <v>15.7</v>
       </c>
       <c r="C178" t="n">
-        <v>-24.09</v>
+        <v>-11.36</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>26.5</v>
+        <v>34.4</v>
       </c>
       <c r="B179" t="n">
-        <v>26.1</v>
+        <v>25.2</v>
       </c>
       <c r="C179" t="n">
-        <v>-17.77</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>5.3</v>
+        <v>35.3</v>
       </c>
       <c r="B180" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="C180" t="n">
-        <v>-13.93</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>6</v>
+        <v>25.6</v>
       </c>
       <c r="B181" t="n">
-        <v>10.6</v>
+        <v>28.2</v>
       </c>
       <c r="C181" t="n">
-        <v>-24.17</v>
+        <v>-23.01</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>30.7</v>
+        <v>6.1</v>
       </c>
       <c r="B182" t="n">
-        <v>6</v>
+        <v>23.6</v>
       </c>
       <c r="C182" t="n">
-        <v>25.01</v>
+        <v>-47.17</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>38.1</v>
+        <v>20.8</v>
       </c>
       <c r="B183" t="n">
-        <v>24.7</v>
+        <v>2</v>
       </c>
       <c r="C183" t="n">
-        <v>3.97</v>
+        <v>15.71</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>7.8</v>
+        <v>19.2</v>
       </c>
       <c r="B184" t="n">
-        <v>4.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C184" t="n">
-        <v>-10.85</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>26.6</v>
+        <v>11.3</v>
       </c>
       <c r="B185" t="n">
-        <v>7.8</v>
+        <v>29.4</v>
       </c>
       <c r="C185" t="n">
-        <v>15</v>
+        <v>-48.88</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>17.5</v>
+        <v>19.3</v>
       </c>
       <c r="B186" t="n">
-        <v>19.4</v>
+        <v>8.4</v>
       </c>
       <c r="C186" t="n">
-        <v>-20.77</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>5.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="B187" t="n">
-        <v>11.7</v>
+        <v>26.1</v>
       </c>
       <c r="C187" t="n">
-        <v>-26.63</v>
+        <v>-46.48</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>33.2</v>
+        <v>13.5</v>
       </c>
       <c r="B188" t="n">
-        <v>29.7</v>
+        <v>24.9</v>
       </c>
       <c r="C188" t="n">
-        <v>-13.07</v>
+        <v>-37.21</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>34.6</v>
+        <v>19.7</v>
       </c>
       <c r="B189" t="n">
-        <v>27.3</v>
+        <v>20.7</v>
       </c>
       <c r="C189" t="n">
-        <v>-6.47</v>
+        <v>-19.44</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>21.5</v>
+        <v>11.2</v>
       </c>
       <c r="B190" t="n">
-        <v>11.5</v>
+        <v>24.3</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.06</v>
+        <v>-39.95</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>29.8</v>
+        <v>33.5</v>
       </c>
       <c r="B191" t="n">
-        <v>13.5</v>
+        <v>9.1</v>
       </c>
       <c r="C191" t="n">
-        <v>10.15</v>
+        <v>24.13</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>12.9</v>
+        <v>24.6</v>
       </c>
       <c r="B192" t="n">
-        <v>5.4</v>
+        <v>25.6</v>
       </c>
       <c r="C192" t="n">
-        <v>-3.46</v>
+        <v>-20.04</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>37</v>
+        <v>29.6</v>
       </c>
       <c r="B193" t="n">
-        <v>28.5</v>
+        <v>24.4</v>
       </c>
       <c r="C193" t="n">
-        <v>-4.63</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>12</v>
+        <v>27.5</v>
       </c>
       <c r="B194" t="n">
-        <v>4.2</v>
+        <v>11.6</v>
       </c>
       <c r="C194" t="n">
-        <v>-2.81</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>35.9</v>
+        <v>18.4</v>
       </c>
       <c r="B195" t="n">
-        <v>28.7</v>
+        <v>13.9</v>
       </c>
       <c r="C195" t="n">
-        <v>-6.81</v>
+        <v>-9.48</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>8.699999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="B196" t="n">
-        <v>1.7</v>
+        <v>17.4</v>
       </c>
       <c r="C196" t="n">
-        <v>-3.83</v>
+        <v>-15.22</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>30.1</v>
+        <v>34.6</v>
       </c>
       <c r="B197" t="n">
-        <v>29.9</v>
+        <v>13.3</v>
       </c>
       <c r="C197" t="n">
-        <v>-18.57</v>
+        <v>18.47</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>20.7</v>
+        <v>24.1</v>
       </c>
       <c r="B198" t="n">
-        <v>15.2</v>
+        <v>3.9</v>
       </c>
       <c r="C198" t="n">
-        <v>-7.98</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>9.4</v>
+        <v>19.1</v>
       </c>
       <c r="B199" t="n">
-        <v>14.9</v>
+        <v>18.5</v>
       </c>
       <c r="C199" t="n">
-        <v>-26.19</v>
+        <v>-16.51</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>38.7</v>
+        <v>15.4</v>
       </c>
       <c r="B200" t="n">
-        <v>17.9</v>
+        <v>9.1</v>
       </c>
       <c r="C200" t="n">
-        <v>17.08</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>12.1</v>
+        <v>15.8</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C201" t="n">
-        <v>4.84</v>
+        <v>-12.19</v>
       </c>
     </row>
   </sheetData>
